--- a/matura2019PR/zadanie5.xlsx
+++ b/matura2019PR/zadanie5.xlsx
@@ -264,7 +264,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -396,11 +395,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-1563872736"/>
-        <c:axId val="-1563868384"/>
+        <c:axId val="-1035592832"/>
+        <c:axId val="-1035590112"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-1563872736"/>
+        <c:axId val="-1035592832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -443,7 +442,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1563868384"/>
+        <c:crossAx val="-1035590112"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -451,7 +450,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-1563868384"/>
+        <c:axId val="-1035590112"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -502,7 +501,7 @@
             <a:endParaRPr lang="pl-PL"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-1563872736"/>
+        <c:crossAx val="-1035592832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1439,8 +1438,8 @@
   <dimension ref="A1:F501"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F32" sqref="F32"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F5" sqref="F5:F501"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1543,7 +1542,7 @@
         <v>1</v>
       </c>
       <c r="F5">
-        <f>IF(F4=0,1,IF(AND(F4=5,C4&gt;20),0,IF(AND(F4=F3,F3=F2),F4+1,F4)))</f>
+        <f>IF(F4=0,1,IF(AND(F4=5,C4&gt;20),0,IF(AND(F4=F3,F3=F2),IF(F4&lt;5,F4+1,F4),F4)))</f>
         <v>1</v>
       </c>
     </row>
@@ -1564,7 +1563,7 @@
         <v>2</v>
       </c>
       <c r="F6">
-        <f t="shared" ref="F6:F69" si="0">IF(F5=0,1,IF(AND(F5=5,C5&gt;20),0,IF(AND(F5=F4,F4=F3),F5+1,F5)))</f>
+        <f t="shared" ref="F6:F69" si="0">IF(F5=0,1,IF(AND(F5=5,C5&gt;20),0,IF(AND(F5=F4,F4=F3),IF(F5&lt;5,F5+1,F5),F5)))</f>
         <v>2</v>
       </c>
     </row>
@@ -2132,7 +2131,7 @@
       </c>
       <c r="F33">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2153,7 +2152,7 @@
       </c>
       <c r="F34">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2174,7 +2173,7 @@
       </c>
       <c r="F35">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2195,7 +2194,7 @@
       </c>
       <c r="F36">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2216,7 +2215,7 @@
       </c>
       <c r="F37">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2237,7 +2236,7 @@
       </c>
       <c r="F38">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2258,7 +2257,7 @@
       </c>
       <c r="F39">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2279,7 +2278,7 @@
       </c>
       <c r="F40">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2300,7 +2299,7 @@
       </c>
       <c r="F41">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2321,7 +2320,7 @@
       </c>
       <c r="F42">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2342,7 +2341,7 @@
       </c>
       <c r="F43">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2363,7 +2362,7 @@
       </c>
       <c r="F44">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2384,7 +2383,7 @@
       </c>
       <c r="F45">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2405,7 +2404,7 @@
       </c>
       <c r="F46">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2426,7 +2425,7 @@
       </c>
       <c r="F47">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2447,7 +2446,7 @@
       </c>
       <c r="F48">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2468,7 +2467,7 @@
       </c>
       <c r="F49">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2489,7 +2488,7 @@
       </c>
       <c r="F50">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2510,7 +2509,7 @@
       </c>
       <c r="F51">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2531,7 +2530,7 @@
       </c>
       <c r="F52">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2552,7 +2551,7 @@
       </c>
       <c r="F53">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2573,7 +2572,7 @@
       </c>
       <c r="F54">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2594,7 +2593,7 @@
       </c>
       <c r="F55">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2615,7 +2614,7 @@
       </c>
       <c r="F56">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2636,7 +2635,7 @@
       </c>
       <c r="F57">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2657,7 +2656,7 @@
       </c>
       <c r="F58">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2678,7 +2677,7 @@
       </c>
       <c r="F59">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2699,7 +2698,7 @@
       </c>
       <c r="F60">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2720,7 +2719,7 @@
       </c>
       <c r="F61">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2741,7 +2740,7 @@
       </c>
       <c r="F62">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2762,7 +2761,7 @@
       </c>
       <c r="F63">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2783,7 +2782,7 @@
       </c>
       <c r="F64">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2804,7 +2803,7 @@
       </c>
       <c r="F65">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2825,7 +2824,7 @@
       </c>
       <c r="F66">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2846,7 +2845,7 @@
       </c>
       <c r="F67">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2867,7 +2866,7 @@
       </c>
       <c r="F68">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2888,7 +2887,7 @@
       </c>
       <c r="F69">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2908,8 +2907,8 @@
         <v>2</v>
       </c>
       <c r="F70">
-        <f t="shared" ref="F70:F133" si="1">IF(F69=0,1,IF(AND(F69=5,C69&gt;20),0,IF(AND(F69=F68,F68=F67),F69+1,F69)))</f>
-        <v>18</v>
+        <f t="shared" ref="F70:F133" si="1">IF(F69=0,1,IF(AND(F69=5,C69&gt;20),0,IF(AND(F69=F68,F68=F67),IF(F69&lt;5,F69+1,F69),F69)))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2930,7 +2929,7 @@
       </c>
       <c r="F71">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2951,7 +2950,7 @@
       </c>
       <c r="F72">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2972,7 +2971,7 @@
       </c>
       <c r="F73">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>3</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2993,7 +2992,7 @@
       </c>
       <c r="F74">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -3014,7 +3013,7 @@
       </c>
       <c r="F75">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -3035,7 +3034,7 @@
       </c>
       <c r="F76">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -3056,7 +3055,7 @@
       </c>
       <c r="F77">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>5</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -3077,7 +3076,7 @@
       </c>
       <c r="F78">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -3098,7 +3097,7 @@
       </c>
       <c r="F79">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -3119,7 +3118,7 @@
       </c>
       <c r="F80">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -3140,7 +3139,7 @@
       </c>
       <c r="F81">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -3161,7 +3160,7 @@
       </c>
       <c r="F82">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -3182,7 +3181,7 @@
       </c>
       <c r="F83">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -3203,7 +3202,7 @@
       </c>
       <c r="F84">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -3224,7 +3223,7 @@
       </c>
       <c r="F85">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -3245,7 +3244,7 @@
       </c>
       <c r="F86">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>3</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -3266,7 +3265,7 @@
       </c>
       <c r="F87">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -3287,7 +3286,7 @@
       </c>
       <c r="F88">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -3308,7 +3307,7 @@
       </c>
       <c r="F89">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>4</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -3329,7 +3328,7 @@
       </c>
       <c r="F90">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>4</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -3350,7 +3349,7 @@
       </c>
       <c r="F91">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3371,7 +3370,7 @@
       </c>
       <c r="F92">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3392,7 +3391,7 @@
       </c>
       <c r="F93">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3413,7 +3412,7 @@
       </c>
       <c r="F94">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3434,7 +3433,7 @@
       </c>
       <c r="F95">
         <f t="shared" si="1"/>
-        <v>26</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3455,7 +3454,7 @@
       </c>
       <c r="F96">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3476,7 +3475,7 @@
       </c>
       <c r="F97">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3497,7 +3496,7 @@
       </c>
       <c r="F98">
         <f t="shared" si="1"/>
-        <v>27</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3518,7 +3517,7 @@
       </c>
       <c r="F99">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3539,7 +3538,7 @@
       </c>
       <c r="F100">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3560,7 +3559,7 @@
       </c>
       <c r="F101">
         <f t="shared" si="1"/>
-        <v>28</v>
+        <v>3</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3581,7 +3580,7 @@
       </c>
       <c r="F102">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3602,7 +3601,7 @@
       </c>
       <c r="F103">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3623,7 +3622,7 @@
       </c>
       <c r="F104">
         <f t="shared" si="1"/>
-        <v>29</v>
+        <v>4</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3644,7 +3643,7 @@
       </c>
       <c r="F105">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>4</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3665,7 +3664,7 @@
       </c>
       <c r="F106">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3686,7 +3685,7 @@
       </c>
       <c r="F107">
         <f t="shared" si="1"/>
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3707,7 +3706,7 @@
       </c>
       <c r="F108">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3728,7 +3727,7 @@
       </c>
       <c r="F109">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3749,7 +3748,7 @@
       </c>
       <c r="F110">
         <f t="shared" si="1"/>
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3770,7 +3769,7 @@
       </c>
       <c r="F111">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3791,7 +3790,7 @@
       </c>
       <c r="F112">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3812,7 +3811,7 @@
       </c>
       <c r="F113">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3833,7 +3832,7 @@
       </c>
       <c r="F114">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3854,7 +3853,7 @@
       </c>
       <c r="F115">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3875,7 +3874,7 @@
       </c>
       <c r="F116">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>3</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3896,7 +3895,7 @@
       </c>
       <c r="F117">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3917,7 +3916,7 @@
       </c>
       <c r="F118">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3938,7 +3937,7 @@
       </c>
       <c r="F119">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>4</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3959,7 +3958,7 @@
       </c>
       <c r="F120">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>5</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3980,7 +3979,7 @@
       </c>
       <c r="F121">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4001,7 +4000,7 @@
       </c>
       <c r="F122">
         <f t="shared" si="1"/>
-        <v>35</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4022,7 +4021,7 @@
       </c>
       <c r="F123">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -4043,7 +4042,7 @@
       </c>
       <c r="F124">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -4064,7 +4063,7 @@
       </c>
       <c r="F125">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -4085,7 +4084,7 @@
       </c>
       <c r="F126">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -4106,7 +4105,7 @@
       </c>
       <c r="F127">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -4127,7 +4126,7 @@
       </c>
       <c r="F128">
         <f t="shared" si="1"/>
-        <v>37</v>
+        <v>3</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -4148,7 +4147,7 @@
       </c>
       <c r="F129">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -4169,7 +4168,7 @@
       </c>
       <c r="F130">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>3</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -4190,7 +4189,7 @@
       </c>
       <c r="F131">
         <f t="shared" si="1"/>
-        <v>38</v>
+        <v>4</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -4211,7 +4210,7 @@
       </c>
       <c r="F132">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -4232,7 +4231,7 @@
       </c>
       <c r="F133">
         <f t="shared" si="1"/>
-        <v>39</v>
+        <v>4</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -4252,8 +4251,8 @@
         <v>5</v>
       </c>
       <c r="F134">
-        <f t="shared" ref="F134:F197" si="2">IF(F133=0,1,IF(AND(F133=5,C133&gt;20),0,IF(AND(F133=F132,F132=F131),F133+1,F133)))</f>
-        <v>39</v>
+        <f t="shared" ref="F134:F197" si="2">IF(F133=0,1,IF(AND(F133=5,C133&gt;20),0,IF(AND(F133=F132,F132=F131),IF(F133&lt;5,F133+1,F133),F133)))</f>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -4274,7 +4273,7 @@
       </c>
       <c r="F135">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -4295,7 +4294,7 @@
       </c>
       <c r="F136">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -4316,7 +4315,7 @@
       </c>
       <c r="F137">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -4337,7 +4336,7 @@
       </c>
       <c r="F138">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -4358,7 +4357,7 @@
       </c>
       <c r="F139">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -4379,7 +4378,7 @@
       </c>
       <c r="F140">
         <f t="shared" si="2"/>
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -4400,7 +4399,7 @@
       </c>
       <c r="F141">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -4421,7 +4420,7 @@
       </c>
       <c r="F142">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -4442,7 +4441,7 @@
       </c>
       <c r="F143">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>3</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -4463,7 +4462,7 @@
       </c>
       <c r="F144">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -4484,7 +4483,7 @@
       </c>
       <c r="F145">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>3</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -4505,7 +4504,7 @@
       </c>
       <c r="F146">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>4</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -4526,7 +4525,7 @@
       </c>
       <c r="F147">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -4547,7 +4546,7 @@
       </c>
       <c r="F148">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>4</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -4568,7 +4567,7 @@
       </c>
       <c r="F149">
         <f t="shared" si="2"/>
-        <v>44</v>
+        <v>5</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -4589,7 +4588,7 @@
       </c>
       <c r="F150">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -4610,7 +4609,7 @@
       </c>
       <c r="F151">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -4631,7 +4630,7 @@
       </c>
       <c r="F152">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>5</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -4652,7 +4651,7 @@
       </c>
       <c r="F153">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -4673,7 +4672,7 @@
       </c>
       <c r="F154">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -4694,7 +4693,7 @@
       </c>
       <c r="F155">
         <f t="shared" si="2"/>
-        <v>46</v>
+        <v>5</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -4715,7 +4714,7 @@
       </c>
       <c r="F156">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -4736,7 +4735,7 @@
       </c>
       <c r="F157">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -4757,7 +4756,7 @@
       </c>
       <c r="F158">
         <f t="shared" si="2"/>
-        <v>47</v>
+        <v>5</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -4778,7 +4777,7 @@
       </c>
       <c r="F159">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -4799,7 +4798,7 @@
       </c>
       <c r="F160">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -4820,7 +4819,7 @@
       </c>
       <c r="F161">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>5</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -4841,7 +4840,7 @@
       </c>
       <c r="F162">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>5</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -4862,7 +4861,7 @@
       </c>
       <c r="F163">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -4883,7 +4882,7 @@
       </c>
       <c r="F164">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -4904,7 +4903,7 @@
       </c>
       <c r="F165">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -4925,7 +4924,7 @@
       </c>
       <c r="F166">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -4946,7 +4945,7 @@
       </c>
       <c r="F167">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -4967,7 +4966,7 @@
       </c>
       <c r="F168">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -4988,7 +4987,7 @@
       </c>
       <c r="F169">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -5009,7 +5008,7 @@
       </c>
       <c r="F170">
         <f t="shared" si="2"/>
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -5030,7 +5029,7 @@
       </c>
       <c r="F171">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -5051,7 +5050,7 @@
       </c>
       <c r="F172">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>3</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -5072,7 +5071,7 @@
       </c>
       <c r="F173">
         <f t="shared" si="2"/>
-        <v>52</v>
+        <v>4</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -5093,7 +5092,7 @@
       </c>
       <c r="F174">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -5114,7 +5113,7 @@
       </c>
       <c r="F175">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>4</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -5135,7 +5134,7 @@
       </c>
       <c r="F176">
         <f t="shared" si="2"/>
-        <v>53</v>
+        <v>5</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -5156,7 +5155,7 @@
       </c>
       <c r="F177">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>5</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -5177,7 +5176,7 @@
       </c>
       <c r="F178">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -5198,7 +5197,7 @@
       </c>
       <c r="F179">
         <f t="shared" si="2"/>
-        <v>54</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -5219,7 +5218,7 @@
       </c>
       <c r="F180">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -5240,7 +5239,7 @@
       </c>
       <c r="F181">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -5261,7 +5260,7 @@
       </c>
       <c r="F182">
         <f t="shared" si="2"/>
-        <v>55</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -5282,7 +5281,7 @@
       </c>
       <c r="F183">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -5303,7 +5302,7 @@
       </c>
       <c r="F184">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -5324,7 +5323,7 @@
       </c>
       <c r="F185">
         <f t="shared" si="2"/>
-        <v>56</v>
+        <v>3</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -5345,7 +5344,7 @@
       </c>
       <c r="F186">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -5366,7 +5365,7 @@
       </c>
       <c r="F187">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>3</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -5387,7 +5386,7 @@
       </c>
       <c r="F188">
         <f t="shared" si="2"/>
-        <v>57</v>
+        <v>4</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -5408,7 +5407,7 @@
       </c>
       <c r="F189">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -5429,7 +5428,7 @@
       </c>
       <c r="F190">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>4</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -5450,7 +5449,7 @@
       </c>
       <c r="F191">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>5</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -5471,7 +5470,7 @@
       </c>
       <c r="F192">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>5</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -5492,7 +5491,7 @@
       </c>
       <c r="F193">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -5513,7 +5512,7 @@
       </c>
       <c r="F194">
         <f t="shared" si="2"/>
-        <v>59</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -5534,7 +5533,7 @@
       </c>
       <c r="F195">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -5555,7 +5554,7 @@
       </c>
       <c r="F196">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -5576,7 +5575,7 @@
       </c>
       <c r="F197">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>2</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -5596,8 +5595,8 @@
         <v>2</v>
       </c>
       <c r="F198">
-        <f t="shared" ref="F198:F261" si="3">IF(F197=0,1,IF(AND(F197=5,C197&gt;20),0,IF(AND(F197=F196,F196=F195),F197+1,F197)))</f>
-        <v>61</v>
+        <f t="shared" ref="F198:F261" si="3">IF(F197=0,1,IF(AND(F197=5,C197&gt;20),0,IF(AND(F197=F196,F196=F195),IF(F197&lt;5,F197+1,F197),F197)))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -5618,7 +5617,7 @@
       </c>
       <c r="F199">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>2</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5639,7 +5638,7 @@
       </c>
       <c r="F200">
         <f t="shared" si="3"/>
-        <v>61</v>
+        <v>3</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5660,7 +5659,7 @@
       </c>
       <c r="F201">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5681,7 +5680,7 @@
       </c>
       <c r="F202">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>3</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5702,7 +5701,7 @@
       </c>
       <c r="F203">
         <f t="shared" si="3"/>
-        <v>62</v>
+        <v>4</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5723,7 +5722,7 @@
       </c>
       <c r="F204">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5744,7 +5743,7 @@
       </c>
       <c r="F205">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>4</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5765,7 +5764,7 @@
       </c>
       <c r="F206">
         <f t="shared" si="3"/>
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5786,7 +5785,7 @@
       </c>
       <c r="F207">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5807,7 +5806,7 @@
       </c>
       <c r="F208">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5828,7 +5827,7 @@
       </c>
       <c r="F209">
         <f t="shared" si="3"/>
-        <v>64</v>
+        <v>5</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5849,7 +5848,7 @@
       </c>
       <c r="F210">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5870,7 +5869,7 @@
       </c>
       <c r="F211">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>5</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5891,7 +5890,7 @@
       </c>
       <c r="F212">
         <f t="shared" si="3"/>
-        <v>65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5912,7 +5911,7 @@
       </c>
       <c r="F213">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5933,7 +5932,7 @@
       </c>
       <c r="F214">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5954,7 +5953,7 @@
       </c>
       <c r="F215">
         <f t="shared" si="3"/>
-        <v>66</v>
+        <v>1</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5975,7 +5974,7 @@
       </c>
       <c r="F216">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -5996,7 +5995,7 @@
       </c>
       <c r="F217">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6017,7 +6016,7 @@
       </c>
       <c r="F218">
         <f t="shared" si="3"/>
-        <v>67</v>
+        <v>2</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6038,7 +6037,7 @@
       </c>
       <c r="F219">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6059,7 +6058,7 @@
       </c>
       <c r="F220">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -6080,7 +6079,7 @@
       </c>
       <c r="F221">
         <f t="shared" si="3"/>
-        <v>68</v>
+        <v>3</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6101,7 +6100,7 @@
       </c>
       <c r="F222">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6122,7 +6121,7 @@
       </c>
       <c r="F223">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6143,7 +6142,7 @@
       </c>
       <c r="F224">
         <f t="shared" si="3"/>
-        <v>69</v>
+        <v>4</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6164,7 +6163,7 @@
       </c>
       <c r="F225">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -6185,7 +6184,7 @@
       </c>
       <c r="F226">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>5</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -6206,7 +6205,7 @@
       </c>
       <c r="F227">
         <f t="shared" si="3"/>
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6227,7 +6226,7 @@
       </c>
       <c r="F228">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6248,7 +6247,7 @@
       </c>
       <c r="F229">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6269,7 +6268,7 @@
       </c>
       <c r="F230">
         <f t="shared" si="3"/>
-        <v>71</v>
+        <v>1</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -6290,7 +6289,7 @@
       </c>
       <c r="F231">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6311,7 +6310,7 @@
       </c>
       <c r="F232">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -6332,7 +6331,7 @@
       </c>
       <c r="F233">
         <f t="shared" si="3"/>
-        <v>72</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -6353,7 +6352,7 @@
       </c>
       <c r="F234">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -6374,7 +6373,7 @@
       </c>
       <c r="F235">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -6395,7 +6394,7 @@
       </c>
       <c r="F236">
         <f t="shared" si="3"/>
-        <v>73</v>
+        <v>3</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -6416,7 +6415,7 @@
       </c>
       <c r="F237">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -6437,7 +6436,7 @@
       </c>
       <c r="F238">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -6458,7 +6457,7 @@
       </c>
       <c r="F239">
         <f t="shared" si="3"/>
-        <v>74</v>
+        <v>4</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -6479,7 +6478,7 @@
       </c>
       <c r="F240">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>5</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -6500,7 +6499,7 @@
       </c>
       <c r="F241">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -6521,7 +6520,7 @@
       </c>
       <c r="F242">
         <f t="shared" si="3"/>
-        <v>75</v>
+        <v>1</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6542,7 +6541,7 @@
       </c>
       <c r="F243">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -6563,7 +6562,7 @@
       </c>
       <c r="F244">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>1</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -6584,7 +6583,7 @@
       </c>
       <c r="F245">
         <f t="shared" si="3"/>
-        <v>76</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6605,7 +6604,7 @@
       </c>
       <c r="F246">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -6626,7 +6625,7 @@
       </c>
       <c r="F247">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -6647,7 +6646,7 @@
       </c>
       <c r="F248">
         <f t="shared" si="3"/>
-        <v>77</v>
+        <v>3</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -6668,7 +6667,7 @@
       </c>
       <c r="F249">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -6689,7 +6688,7 @@
       </c>
       <c r="F250">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>3</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -6710,7 +6709,7 @@
       </c>
       <c r="F251">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>4</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -6731,7 +6730,7 @@
       </c>
       <c r="F252">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -6752,7 +6751,7 @@
       </c>
       <c r="F253">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>4</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -6773,7 +6772,7 @@
       </c>
       <c r="F254">
         <f t="shared" si="3"/>
-        <v>79</v>
+        <v>5</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -6794,7 +6793,7 @@
       </c>
       <c r="F255">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -6815,7 +6814,7 @@
       </c>
       <c r="F256">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -6836,7 +6835,7 @@
       </c>
       <c r="F257">
         <f t="shared" si="3"/>
-        <v>80</v>
+        <v>1</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -6857,7 +6856,7 @@
       </c>
       <c r="F258">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>1</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -6878,7 +6877,7 @@
       </c>
       <c r="F259">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -6899,7 +6898,7 @@
       </c>
       <c r="F260">
         <f t="shared" si="3"/>
-        <v>81</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -6920,7 +6919,7 @@
       </c>
       <c r="F261">
         <f t="shared" si="3"/>
-        <v>82</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -6940,8 +6939,8 @@
         <v>3</v>
       </c>
       <c r="F262">
-        <f t="shared" ref="F262:F325" si="4">IF(F261=0,1,IF(AND(F261=5,C261&gt;20),0,IF(AND(F261=F260,F260=F259),F261+1,F261)))</f>
-        <v>82</v>
+        <f t="shared" ref="F262:F325" si="4">IF(F261=0,1,IF(AND(F261=5,C261&gt;20),0,IF(AND(F261=F260,F260=F259),IF(F261&lt;5,F261+1,F261),F261)))</f>
+        <v>3</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6962,7 +6961,7 @@
       </c>
       <c r="F263">
         <f t="shared" si="4"/>
-        <v>82</v>
+        <v>3</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -6983,7 +6982,7 @@
       </c>
       <c r="F264">
         <f t="shared" si="4"/>
-        <v>83</v>
+        <v>3</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -7004,7 +7003,7 @@
       </c>
       <c r="F265">
         <f t="shared" si="4"/>
-        <v>83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -7025,7 +7024,7 @@
       </c>
       <c r="F266">
         <f t="shared" si="4"/>
-        <v>83</v>
+        <v>4</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -7046,7 +7045,7 @@
       </c>
       <c r="F267">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>4</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -7067,7 +7066,7 @@
       </c>
       <c r="F268">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>5</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -7088,7 +7087,7 @@
       </c>
       <c r="F269">
         <f t="shared" si="4"/>
-        <v>84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -7109,7 +7108,7 @@
       </c>
       <c r="F270">
         <f t="shared" si="4"/>
-        <v>85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -7130,7 +7129,7 @@
       </c>
       <c r="F271">
         <f t="shared" si="4"/>
-        <v>85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -7151,7 +7150,7 @@
       </c>
       <c r="F272">
         <f t="shared" si="4"/>
-        <v>85</v>
+        <v>1</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -7172,7 +7171,7 @@
       </c>
       <c r="F273">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -7193,7 +7192,7 @@
       </c>
       <c r="F274">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -7214,7 +7213,7 @@
       </c>
       <c r="F275">
         <f t="shared" si="4"/>
-        <v>86</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -7235,7 +7234,7 @@
       </c>
       <c r="F276">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -7256,7 +7255,7 @@
       </c>
       <c r="F277">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -7277,7 +7276,7 @@
       </c>
       <c r="F278">
         <f t="shared" si="4"/>
-        <v>87</v>
+        <v>3</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -7298,7 +7297,7 @@
       </c>
       <c r="F279">
         <f t="shared" si="4"/>
-        <v>88</v>
+        <v>4</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -7319,7 +7318,7 @@
       </c>
       <c r="F280">
         <f t="shared" si="4"/>
-        <v>88</v>
+        <v>4</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -7340,7 +7339,7 @@
       </c>
       <c r="F281">
         <f t="shared" si="4"/>
-        <v>88</v>
+        <v>4</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -7361,7 +7360,7 @@
       </c>
       <c r="F282">
         <f t="shared" si="4"/>
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -7382,7 +7381,7 @@
       </c>
       <c r="F283">
         <f t="shared" si="4"/>
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -7403,7 +7402,7 @@
       </c>
       <c r="F284">
         <f t="shared" si="4"/>
-        <v>89</v>
+        <v>5</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -7424,7 +7423,7 @@
       </c>
       <c r="F285">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -7445,7 +7444,7 @@
       </c>
       <c r="F286">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -7466,7 +7465,7 @@
       </c>
       <c r="F287">
         <f t="shared" si="4"/>
-        <v>90</v>
+        <v>5</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -7487,7 +7486,7 @@
       </c>
       <c r="F288">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -7508,7 +7507,7 @@
       </c>
       <c r="F289">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -7529,7 +7528,7 @@
       </c>
       <c r="F290">
         <f t="shared" si="4"/>
-        <v>91</v>
+        <v>5</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -7550,7 +7549,7 @@
       </c>
       <c r="F291">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -7571,7 +7570,7 @@
       </c>
       <c r="F292">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -7592,7 +7591,7 @@
       </c>
       <c r="F293">
         <f t="shared" si="4"/>
-        <v>92</v>
+        <v>5</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -7613,7 +7612,7 @@
       </c>
       <c r="F294">
         <f t="shared" si="4"/>
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -7634,7 +7633,7 @@
       </c>
       <c r="F295">
         <f t="shared" si="4"/>
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -7655,7 +7654,7 @@
       </c>
       <c r="F296">
         <f t="shared" si="4"/>
-        <v>93</v>
+        <v>5</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -7676,7 +7675,7 @@
       </c>
       <c r="F297">
         <f t="shared" si="4"/>
-        <v>94</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -7697,7 +7696,7 @@
       </c>
       <c r="F298">
         <f t="shared" si="4"/>
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -7718,7 +7717,7 @@
       </c>
       <c r="F299">
         <f t="shared" si="4"/>
-        <v>94</v>
+        <v>1</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -7739,7 +7738,7 @@
       </c>
       <c r="F300">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>1</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -7760,7 +7759,7 @@
       </c>
       <c r="F301">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -7781,7 +7780,7 @@
       </c>
       <c r="F302">
         <f t="shared" si="4"/>
-        <v>95</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -7802,7 +7801,7 @@
       </c>
       <c r="F303">
         <f t="shared" si="4"/>
-        <v>96</v>
+        <v>2</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -7823,7 +7822,7 @@
       </c>
       <c r="F304">
         <f t="shared" si="4"/>
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -7844,7 +7843,7 @@
       </c>
       <c r="F305">
         <f t="shared" si="4"/>
-        <v>96</v>
+        <v>3</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -7865,7 +7864,7 @@
       </c>
       <c r="F306">
         <f t="shared" si="4"/>
-        <v>97</v>
+        <v>3</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -7886,7 +7885,7 @@
       </c>
       <c r="F307">
         <f t="shared" si="4"/>
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -7907,7 +7906,7 @@
       </c>
       <c r="F308">
         <f t="shared" si="4"/>
-        <v>97</v>
+        <v>4</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -7928,7 +7927,7 @@
       </c>
       <c r="F309">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>4</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -7949,7 +7948,7 @@
       </c>
       <c r="F310">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -7970,7 +7969,7 @@
       </c>
       <c r="F311">
         <f t="shared" si="4"/>
-        <v>98</v>
+        <v>5</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -7991,7 +7990,7 @@
       </c>
       <c r="F312">
         <f t="shared" si="4"/>
-        <v>99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -8012,7 +8011,7 @@
       </c>
       <c r="F313">
         <f t="shared" si="4"/>
-        <v>99</v>
+        <v>5</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -8033,7 +8032,7 @@
       </c>
       <c r="F314">
         <f t="shared" si="4"/>
-        <v>99</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -8054,7 +8053,7 @@
       </c>
       <c r="F315">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -8075,7 +8074,7 @@
       </c>
       <c r="F316">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -8096,7 +8095,7 @@
       </c>
       <c r="F317">
         <f t="shared" si="4"/>
-        <v>100</v>
+        <v>1</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -8117,7 +8116,7 @@
       </c>
       <c r="F318">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -8138,7 +8137,7 @@
       </c>
       <c r="F319">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -8159,7 +8158,7 @@
       </c>
       <c r="F320">
         <f t="shared" si="4"/>
-        <v>101</v>
+        <v>2</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -8180,7 +8179,7 @@
       </c>
       <c r="F321">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -8201,7 +8200,7 @@
       </c>
       <c r="F322">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -8222,7 +8221,7 @@
       </c>
       <c r="F323">
         <f t="shared" si="4"/>
-        <v>102</v>
+        <v>3</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -8243,7 +8242,7 @@
       </c>
       <c r="F324">
         <f t="shared" si="4"/>
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -8264,7 +8263,7 @@
       </c>
       <c r="F325">
         <f t="shared" si="4"/>
-        <v>103</v>
+        <v>4</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -8284,8 +8283,8 @@
         <v>0</v>
       </c>
       <c r="F326">
-        <f t="shared" ref="F326:F389" si="5">IF(F325=0,1,IF(AND(F325=5,C325&gt;20),0,IF(AND(F325=F324,F324=F323),F325+1,F325)))</f>
-        <v>103</v>
+        <f t="shared" ref="F326:F389" si="5">IF(F325=0,1,IF(AND(F325=5,C325&gt;20),0,IF(AND(F325=F324,F324=F323),IF(F325&lt;5,F325+1,F325),F325)))</f>
+        <v>4</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -8306,7 +8305,7 @@
       </c>
       <c r="F327">
         <f t="shared" si="5"/>
-        <v>104</v>
+        <v>5</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -8327,7 +8326,7 @@
       </c>
       <c r="F328">
         <f t="shared" si="5"/>
-        <v>104</v>
+        <v>5</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -8348,7 +8347,7 @@
       </c>
       <c r="F329">
         <f t="shared" si="5"/>
-        <v>104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -8369,7 +8368,7 @@
       </c>
       <c r="F330">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -8390,7 +8389,7 @@
       </c>
       <c r="F331">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -8411,7 +8410,7 @@
       </c>
       <c r="F332">
         <f t="shared" si="5"/>
-        <v>105</v>
+        <v>1</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -8432,7 +8431,7 @@
       </c>
       <c r="F333">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>2</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -8453,7 +8452,7 @@
       </c>
       <c r="F334">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>2</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -8474,7 +8473,7 @@
       </c>
       <c r="F335">
         <f t="shared" si="5"/>
-        <v>106</v>
+        <v>2</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -8495,7 +8494,7 @@
       </c>
       <c r="F336">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -8516,7 +8515,7 @@
       </c>
       <c r="F337">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -8537,7 +8536,7 @@
       </c>
       <c r="F338">
         <f t="shared" si="5"/>
-        <v>107</v>
+        <v>3</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -8558,7 +8557,7 @@
       </c>
       <c r="F339">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>4</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -8579,7 +8578,7 @@
       </c>
       <c r="F340">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>4</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -8600,7 +8599,7 @@
       </c>
       <c r="F341">
         <f t="shared" si="5"/>
-        <v>108</v>
+        <v>4</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -8621,7 +8620,7 @@
       </c>
       <c r="F342">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>5</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -8642,7 +8641,7 @@
       </c>
       <c r="F343">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -8663,7 +8662,7 @@
       </c>
       <c r="F344">
         <f t="shared" si="5"/>
-        <v>109</v>
+        <v>1</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -8684,7 +8683,7 @@
       </c>
       <c r="F345">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>1</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -8705,7 +8704,7 @@
       </c>
       <c r="F346">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>1</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -8726,7 +8725,7 @@
       </c>
       <c r="F347">
         <f t="shared" si="5"/>
-        <v>110</v>
+        <v>2</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -8747,7 +8746,7 @@
       </c>
       <c r="F348">
         <f t="shared" si="5"/>
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -8768,7 +8767,7 @@
       </c>
       <c r="F349">
         <f t="shared" si="5"/>
-        <v>111</v>
+        <v>2</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -8789,7 +8788,7 @@
       </c>
       <c r="F350">
         <f t="shared" si="5"/>
-        <v>111</v>
+        <v>3</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -8810,7 +8809,7 @@
       </c>
       <c r="F351">
         <f t="shared" si="5"/>
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -8831,7 +8830,7 @@
       </c>
       <c r="F352">
         <f t="shared" si="5"/>
-        <v>112</v>
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -8852,7 +8851,7 @@
       </c>
       <c r="F353">
         <f t="shared" si="5"/>
-        <v>112</v>
+        <v>4</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -8873,7 +8872,7 @@
       </c>
       <c r="F354">
         <f t="shared" si="5"/>
-        <v>113</v>
+        <v>4</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -8894,7 +8893,7 @@
       </c>
       <c r="F355">
         <f t="shared" si="5"/>
-        <v>113</v>
+        <v>4</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -8915,7 +8914,7 @@
       </c>
       <c r="F356">
         <f t="shared" si="5"/>
-        <v>113</v>
+        <v>5</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -8936,7 +8935,7 @@
       </c>
       <c r="F357">
         <f t="shared" si="5"/>
-        <v>114</v>
+        <v>5</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -8957,7 +8956,7 @@
       </c>
       <c r="F358">
         <f t="shared" si="5"/>
-        <v>114</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -8978,7 +8977,7 @@
       </c>
       <c r="F359">
         <f t="shared" si="5"/>
-        <v>114</v>
+        <v>1</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -8999,7 +8998,7 @@
       </c>
       <c r="F360">
         <f t="shared" si="5"/>
-        <v>115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -9020,7 +9019,7 @@
       </c>
       <c r="F361">
         <f t="shared" si="5"/>
-        <v>115</v>
+        <v>1</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -9041,7 +9040,7 @@
       </c>
       <c r="F362">
         <f t="shared" si="5"/>
-        <v>115</v>
+        <v>2</v>
       </c>
     </row>
     <row r="363" spans="1:6" x14ac:dyDescent="0.25">
@@ -9062,7 +9061,7 @@
       </c>
       <c r="F363">
         <f t="shared" si="5"/>
-        <v>116</v>
+        <v>2</v>
       </c>
     </row>
     <row r="364" spans="1:6" x14ac:dyDescent="0.25">
@@ -9083,7 +9082,7 @@
       </c>
       <c r="F364">
         <f t="shared" si="5"/>
-        <v>116</v>
+        <v>2</v>
       </c>
     </row>
     <row r="365" spans="1:6" x14ac:dyDescent="0.25">
@@ -9104,7 +9103,7 @@
       </c>
       <c r="F365">
         <f t="shared" si="5"/>
-        <v>116</v>
+        <v>3</v>
       </c>
     </row>
     <row r="366" spans="1:6" x14ac:dyDescent="0.25">
@@ -9125,7 +9124,7 @@
       </c>
       <c r="F366">
         <f t="shared" si="5"/>
-        <v>117</v>
+        <v>3</v>
       </c>
     </row>
     <row r="367" spans="1:6" x14ac:dyDescent="0.25">
@@ -9146,7 +9145,7 @@
       </c>
       <c r="F367">
         <f t="shared" si="5"/>
-        <v>117</v>
+        <v>3</v>
       </c>
     </row>
     <row r="368" spans="1:6" x14ac:dyDescent="0.25">
@@ -9167,7 +9166,7 @@
       </c>
       <c r="F368">
         <f t="shared" si="5"/>
-        <v>117</v>
+        <v>4</v>
       </c>
     </row>
     <row r="369" spans="1:6" x14ac:dyDescent="0.25">
@@ -9188,7 +9187,7 @@
       </c>
       <c r="F369">
         <f t="shared" si="5"/>
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="370" spans="1:6" x14ac:dyDescent="0.25">
@@ -9209,7 +9208,7 @@
       </c>
       <c r="F370">
         <f t="shared" si="5"/>
-        <v>118</v>
+        <v>4</v>
       </c>
     </row>
     <row r="371" spans="1:6" x14ac:dyDescent="0.25">
@@ -9230,7 +9229,7 @@
       </c>
       <c r="F371">
         <f t="shared" si="5"/>
-        <v>118</v>
+        <v>5</v>
       </c>
     </row>
     <row r="372" spans="1:6" x14ac:dyDescent="0.25">
@@ -9251,7 +9250,7 @@
       </c>
       <c r="F372">
         <f t="shared" si="5"/>
-        <v>119</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373" spans="1:6" x14ac:dyDescent="0.25">
@@ -9272,7 +9271,7 @@
       </c>
       <c r="F373">
         <f t="shared" si="5"/>
-        <v>119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="374" spans="1:6" x14ac:dyDescent="0.25">
@@ -9293,7 +9292,7 @@
       </c>
       <c r="F374">
         <f t="shared" si="5"/>
-        <v>119</v>
+        <v>1</v>
       </c>
     </row>
     <row r="375" spans="1:6" x14ac:dyDescent="0.25">
@@ -9314,7 +9313,7 @@
       </c>
       <c r="F375">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>1</v>
       </c>
     </row>
     <row r="376" spans="1:6" x14ac:dyDescent="0.25">
@@ -9335,7 +9334,7 @@
       </c>
       <c r="F376">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>2</v>
       </c>
     </row>
     <row r="377" spans="1:6" x14ac:dyDescent="0.25">
@@ -9356,7 +9355,7 @@
       </c>
       <c r="F377">
         <f t="shared" si="5"/>
-        <v>120</v>
+        <v>2</v>
       </c>
     </row>
     <row r="378" spans="1:6" x14ac:dyDescent="0.25">
@@ -9377,7 +9376,7 @@
       </c>
       <c r="F378">
         <f t="shared" si="5"/>
-        <v>121</v>
+        <v>2</v>
       </c>
     </row>
     <row r="379" spans="1:6" x14ac:dyDescent="0.25">
@@ -9398,7 +9397,7 @@
       </c>
       <c r="F379">
         <f t="shared" si="5"/>
-        <v>121</v>
+        <v>3</v>
       </c>
     </row>
     <row r="380" spans="1:6" x14ac:dyDescent="0.25">
@@ -9419,7 +9418,7 @@
       </c>
       <c r="F380">
         <f t="shared" si="5"/>
-        <v>121</v>
+        <v>3</v>
       </c>
     </row>
     <row r="381" spans="1:6" x14ac:dyDescent="0.25">
@@ -9440,7 +9439,7 @@
       </c>
       <c r="F381">
         <f t="shared" si="5"/>
-        <v>122</v>
+        <v>3</v>
       </c>
     </row>
     <row r="382" spans="1:6" x14ac:dyDescent="0.25">
@@ -9461,7 +9460,7 @@
       </c>
       <c r="F382">
         <f t="shared" si="5"/>
-        <v>122</v>
+        <v>4</v>
       </c>
     </row>
     <row r="383" spans="1:6" x14ac:dyDescent="0.25">
@@ -9482,7 +9481,7 @@
       </c>
       <c r="F383">
         <f t="shared" si="5"/>
-        <v>122</v>
+        <v>4</v>
       </c>
     </row>
     <row r="384" spans="1:6" x14ac:dyDescent="0.25">
@@ -9503,7 +9502,7 @@
       </c>
       <c r="F384">
         <f t="shared" si="5"/>
-        <v>123</v>
+        <v>4</v>
       </c>
     </row>
     <row r="385" spans="1:6" x14ac:dyDescent="0.25">
@@ -9524,7 +9523,7 @@
       </c>
       <c r="F385">
         <f t="shared" si="5"/>
-        <v>123</v>
+        <v>5</v>
       </c>
     </row>
     <row r="386" spans="1:6" x14ac:dyDescent="0.25">
@@ -9545,7 +9544,7 @@
       </c>
       <c r="F386">
         <f t="shared" si="5"/>
-        <v>123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387" spans="1:6" x14ac:dyDescent="0.25">
@@ -9566,7 +9565,7 @@
       </c>
       <c r="F387">
         <f t="shared" si="5"/>
-        <v>124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="388" spans="1:6" x14ac:dyDescent="0.25">
@@ -9587,7 +9586,7 @@
       </c>
       <c r="F388">
         <f t="shared" si="5"/>
-        <v>124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="389" spans="1:6" x14ac:dyDescent="0.25">
@@ -9608,7 +9607,7 @@
       </c>
       <c r="F389">
         <f t="shared" si="5"/>
-        <v>124</v>
+        <v>1</v>
       </c>
     </row>
     <row r="390" spans="1:6" x14ac:dyDescent="0.25">
@@ -9628,8 +9627,8 @@
         <v>0</v>
       </c>
       <c r="F390">
-        <f t="shared" ref="F390:F453" si="6">IF(F389=0,1,IF(AND(F389=5,C389&gt;20),0,IF(AND(F389=F388,F388=F387),F389+1,F389)))</f>
-        <v>125</v>
+        <f t="shared" ref="F390:F453" si="6">IF(F389=0,1,IF(AND(F389=5,C389&gt;20),0,IF(AND(F389=F388,F388=F387),IF(F389&lt;5,F389+1,F389),F389)))</f>
+        <v>2</v>
       </c>
     </row>
     <row r="391" spans="1:6" x14ac:dyDescent="0.25">
@@ -9650,7 +9649,7 @@
       </c>
       <c r="F391">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="392" spans="1:6" x14ac:dyDescent="0.25">
@@ -9671,7 +9670,7 @@
       </c>
       <c r="F392">
         <f t="shared" si="6"/>
-        <v>125</v>
+        <v>2</v>
       </c>
     </row>
     <row r="393" spans="1:6" x14ac:dyDescent="0.25">
@@ -9692,7 +9691,7 @@
       </c>
       <c r="F393">
         <f t="shared" si="6"/>
-        <v>126</v>
+        <v>3</v>
       </c>
     </row>
     <row r="394" spans="1:6" x14ac:dyDescent="0.25">
@@ -9713,7 +9712,7 @@
       </c>
       <c r="F394">
         <f t="shared" si="6"/>
-        <v>126</v>
+        <v>3</v>
       </c>
     </row>
     <row r="395" spans="1:6" x14ac:dyDescent="0.25">
@@ -9734,7 +9733,7 @@
       </c>
       <c r="F395">
         <f t="shared" si="6"/>
-        <v>126</v>
+        <v>3</v>
       </c>
     </row>
     <row r="396" spans="1:6" x14ac:dyDescent="0.25">
@@ -9755,7 +9754,7 @@
       </c>
       <c r="F396">
         <f t="shared" si="6"/>
-        <v>127</v>
+        <v>4</v>
       </c>
     </row>
     <row r="397" spans="1:6" x14ac:dyDescent="0.25">
@@ -9776,7 +9775,7 @@
       </c>
       <c r="F397">
         <f t="shared" si="6"/>
-        <v>127</v>
+        <v>4</v>
       </c>
     </row>
     <row r="398" spans="1:6" x14ac:dyDescent="0.25">
@@ -9797,7 +9796,7 @@
       </c>
       <c r="F398">
         <f t="shared" si="6"/>
-        <v>127</v>
+        <v>4</v>
       </c>
     </row>
     <row r="399" spans="1:6" x14ac:dyDescent="0.25">
@@ -9818,7 +9817,7 @@
       </c>
       <c r="F399">
         <f t="shared" si="6"/>
-        <v>128</v>
+        <v>5</v>
       </c>
     </row>
     <row r="400" spans="1:6" x14ac:dyDescent="0.25">
@@ -9839,7 +9838,7 @@
       </c>
       <c r="F400">
         <f t="shared" si="6"/>
-        <v>128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401" spans="1:6" x14ac:dyDescent="0.25">
@@ -9860,7 +9859,7 @@
       </c>
       <c r="F401">
         <f t="shared" si="6"/>
-        <v>128</v>
+        <v>1</v>
       </c>
     </row>
     <row r="402" spans="1:6" x14ac:dyDescent="0.25">
@@ -9881,7 +9880,7 @@
       </c>
       <c r="F402">
         <f t="shared" si="6"/>
-        <v>129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="403" spans="1:6" x14ac:dyDescent="0.25">
@@ -9902,7 +9901,7 @@
       </c>
       <c r="F403">
         <f t="shared" si="6"/>
-        <v>129</v>
+        <v>1</v>
       </c>
     </row>
     <row r="404" spans="1:6" x14ac:dyDescent="0.25">
@@ -9923,7 +9922,7 @@
       </c>
       <c r="F404">
         <f t="shared" si="6"/>
-        <v>129</v>
+        <v>2</v>
       </c>
     </row>
     <row r="405" spans="1:6" x14ac:dyDescent="0.25">
@@ -9944,7 +9943,7 @@
       </c>
       <c r="F405">
         <f t="shared" si="6"/>
-        <v>130</v>
+        <v>2</v>
       </c>
     </row>
     <row r="406" spans="1:6" x14ac:dyDescent="0.25">
@@ -9965,7 +9964,7 @@
       </c>
       <c r="F406">
         <f t="shared" si="6"/>
-        <v>130</v>
+        <v>2</v>
       </c>
     </row>
     <row r="407" spans="1:6" x14ac:dyDescent="0.25">
@@ -9986,7 +9985,7 @@
       </c>
       <c r="F407">
         <f t="shared" si="6"/>
-        <v>130</v>
+        <v>3</v>
       </c>
     </row>
     <row r="408" spans="1:6" x14ac:dyDescent="0.25">
@@ -10007,7 +10006,7 @@
       </c>
       <c r="F408">
         <f t="shared" si="6"/>
-        <v>131</v>
+        <v>3</v>
       </c>
     </row>
     <row r="409" spans="1:6" x14ac:dyDescent="0.25">
@@ -10028,7 +10027,7 @@
       </c>
       <c r="F409">
         <f t="shared" si="6"/>
-        <v>131</v>
+        <v>3</v>
       </c>
     </row>
     <row r="410" spans="1:6" x14ac:dyDescent="0.25">
@@ -10049,7 +10048,7 @@
       </c>
       <c r="F410">
         <f t="shared" si="6"/>
-        <v>131</v>
+        <v>4</v>
       </c>
     </row>
     <row r="411" spans="1:6" x14ac:dyDescent="0.25">
@@ -10070,7 +10069,7 @@
       </c>
       <c r="F411">
         <f t="shared" si="6"/>
-        <v>132</v>
+        <v>4</v>
       </c>
     </row>
     <row r="412" spans="1:6" x14ac:dyDescent="0.25">
@@ -10091,7 +10090,7 @@
       </c>
       <c r="F412">
         <f t="shared" si="6"/>
-        <v>132</v>
+        <v>4</v>
       </c>
     </row>
     <row r="413" spans="1:6" x14ac:dyDescent="0.25">
@@ -10112,7 +10111,7 @@
       </c>
       <c r="F413">
         <f t="shared" si="6"/>
-        <v>132</v>
+        <v>5</v>
       </c>
     </row>
     <row r="414" spans="1:6" x14ac:dyDescent="0.25">
@@ -10133,7 +10132,7 @@
       </c>
       <c r="F414">
         <f t="shared" si="6"/>
-        <v>133</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415" spans="1:6" x14ac:dyDescent="0.25">
@@ -10154,7 +10153,7 @@
       </c>
       <c r="F415">
         <f t="shared" si="6"/>
-        <v>133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="416" spans="1:6" x14ac:dyDescent="0.25">
@@ -10175,7 +10174,7 @@
       </c>
       <c r="F416">
         <f t="shared" si="6"/>
-        <v>133</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417" spans="1:6" x14ac:dyDescent="0.25">
@@ -10196,7 +10195,7 @@
       </c>
       <c r="F417">
         <f t="shared" si="6"/>
-        <v>134</v>
+        <v>1</v>
       </c>
     </row>
     <row r="418" spans="1:6" x14ac:dyDescent="0.25">
@@ -10217,7 +10216,7 @@
       </c>
       <c r="F418">
         <f t="shared" si="6"/>
-        <v>134</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419" spans="1:6" x14ac:dyDescent="0.25">
@@ -10238,7 +10237,7 @@
       </c>
       <c r="F419">
         <f t="shared" si="6"/>
-        <v>134</v>
+        <v>2</v>
       </c>
     </row>
     <row r="420" spans="1:6" x14ac:dyDescent="0.25">
@@ -10259,7 +10258,7 @@
       </c>
       <c r="F420">
         <f t="shared" si="6"/>
-        <v>135</v>
+        <v>2</v>
       </c>
     </row>
     <row r="421" spans="1:6" x14ac:dyDescent="0.25">
@@ -10280,7 +10279,7 @@
       </c>
       <c r="F421">
         <f t="shared" si="6"/>
-        <v>135</v>
+        <v>3</v>
       </c>
     </row>
     <row r="422" spans="1:6" x14ac:dyDescent="0.25">
@@ -10301,7 +10300,7 @@
       </c>
       <c r="F422">
         <f t="shared" si="6"/>
-        <v>135</v>
+        <v>3</v>
       </c>
     </row>
     <row r="423" spans="1:6" x14ac:dyDescent="0.25">
@@ -10322,7 +10321,7 @@
       </c>
       <c r="F423">
         <f t="shared" si="6"/>
-        <v>136</v>
+        <v>3</v>
       </c>
     </row>
     <row r="424" spans="1:6" x14ac:dyDescent="0.25">
@@ -10343,7 +10342,7 @@
       </c>
       <c r="F424">
         <f t="shared" si="6"/>
-        <v>136</v>
+        <v>4</v>
       </c>
     </row>
     <row r="425" spans="1:6" x14ac:dyDescent="0.25">
@@ -10364,7 +10363,7 @@
       </c>
       <c r="F425">
         <f t="shared" si="6"/>
-        <v>136</v>
+        <v>4</v>
       </c>
     </row>
     <row r="426" spans="1:6" x14ac:dyDescent="0.25">
@@ -10385,7 +10384,7 @@
       </c>
       <c r="F426">
         <f t="shared" si="6"/>
-        <v>137</v>
+        <v>4</v>
       </c>
     </row>
     <row r="427" spans="1:6" x14ac:dyDescent="0.25">
@@ -10406,7 +10405,7 @@
       </c>
       <c r="F427">
         <f t="shared" si="6"/>
-        <v>137</v>
+        <v>5</v>
       </c>
     </row>
     <row r="428" spans="1:6" x14ac:dyDescent="0.25">
@@ -10427,7 +10426,7 @@
       </c>
       <c r="F428">
         <f t="shared" si="6"/>
-        <v>137</v>
+        <v>0</v>
       </c>
     </row>
     <row r="429" spans="1:6" x14ac:dyDescent="0.25">
@@ -10448,7 +10447,7 @@
       </c>
       <c r="F429">
         <f t="shared" si="6"/>
-        <v>138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="430" spans="1:6" x14ac:dyDescent="0.25">
@@ -10469,7 +10468,7 @@
       </c>
       <c r="F430">
         <f t="shared" si="6"/>
-        <v>138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431" spans="1:6" x14ac:dyDescent="0.25">
@@ -10490,7 +10489,7 @@
       </c>
       <c r="F431">
         <f t="shared" si="6"/>
-        <v>138</v>
+        <v>1</v>
       </c>
     </row>
     <row r="432" spans="1:6" x14ac:dyDescent="0.25">
@@ -10511,7 +10510,7 @@
       </c>
       <c r="F432">
         <f t="shared" si="6"/>
-        <v>139</v>
+        <v>2</v>
       </c>
     </row>
     <row r="433" spans="1:6" x14ac:dyDescent="0.25">
@@ -10532,7 +10531,7 @@
       </c>
       <c r="F433">
         <f t="shared" si="6"/>
-        <v>139</v>
+        <v>2</v>
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
@@ -10553,7 +10552,7 @@
       </c>
       <c r="F434">
         <f t="shared" si="6"/>
-        <v>139</v>
+        <v>2</v>
       </c>
     </row>
     <row r="435" spans="1:6" x14ac:dyDescent="0.25">
@@ -10574,7 +10573,7 @@
       </c>
       <c r="F435">
         <f t="shared" si="6"/>
-        <v>140</v>
+        <v>3</v>
       </c>
     </row>
     <row r="436" spans="1:6" x14ac:dyDescent="0.25">
@@ -10595,7 +10594,7 @@
       </c>
       <c r="F436">
         <f t="shared" si="6"/>
-        <v>140</v>
+        <v>3</v>
       </c>
     </row>
     <row r="437" spans="1:6" x14ac:dyDescent="0.25">
@@ -10616,7 +10615,7 @@
       </c>
       <c r="F437">
         <f t="shared" si="6"/>
-        <v>140</v>
+        <v>3</v>
       </c>
     </row>
     <row r="438" spans="1:6" x14ac:dyDescent="0.25">
@@ -10637,7 +10636,7 @@
       </c>
       <c r="F438">
         <f t="shared" si="6"/>
-        <v>141</v>
+        <v>4</v>
       </c>
     </row>
     <row r="439" spans="1:6" x14ac:dyDescent="0.25">
@@ -10658,7 +10657,7 @@
       </c>
       <c r="F439">
         <f t="shared" si="6"/>
-        <v>141</v>
+        <v>4</v>
       </c>
     </row>
     <row r="440" spans="1:6" x14ac:dyDescent="0.25">
@@ -10679,7 +10678,7 @@
       </c>
       <c r="F440">
         <f t="shared" si="6"/>
-        <v>141</v>
+        <v>4</v>
       </c>
     </row>
     <row r="441" spans="1:6" x14ac:dyDescent="0.25">
@@ -10700,7 +10699,7 @@
       </c>
       <c r="F441">
         <f t="shared" si="6"/>
-        <v>142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="442" spans="1:6" x14ac:dyDescent="0.25">
@@ -10721,7 +10720,7 @@
       </c>
       <c r="F442">
         <f t="shared" si="6"/>
-        <v>142</v>
+        <v>5</v>
       </c>
     </row>
     <row r="443" spans="1:6" x14ac:dyDescent="0.25">
@@ -10742,7 +10741,7 @@
       </c>
       <c r="F443">
         <f t="shared" si="6"/>
-        <v>142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="444" spans="1:6" x14ac:dyDescent="0.25">
@@ -10763,7 +10762,7 @@
       </c>
       <c r="F444">
         <f t="shared" si="6"/>
-        <v>143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="445" spans="1:6" x14ac:dyDescent="0.25">
@@ -10784,7 +10783,7 @@
       </c>
       <c r="F445">
         <f t="shared" si="6"/>
-        <v>143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="446" spans="1:6" x14ac:dyDescent="0.25">
@@ -10805,7 +10804,7 @@
       </c>
       <c r="F446">
         <f t="shared" si="6"/>
-        <v>143</v>
+        <v>1</v>
       </c>
     </row>
     <row r="447" spans="1:6" x14ac:dyDescent="0.25">
@@ -10826,7 +10825,7 @@
       </c>
       <c r="F447">
         <f t="shared" si="6"/>
-        <v>144</v>
+        <v>2</v>
       </c>
     </row>
     <row r="448" spans="1:6" x14ac:dyDescent="0.25">
@@ -10847,7 +10846,7 @@
       </c>
       <c r="F448">
         <f t="shared" si="6"/>
-        <v>144</v>
+        <v>2</v>
       </c>
     </row>
     <row r="449" spans="1:6" x14ac:dyDescent="0.25">
@@ -10868,7 +10867,7 @@
       </c>
       <c r="F449">
         <f t="shared" si="6"/>
-        <v>144</v>
+        <v>2</v>
       </c>
     </row>
     <row r="450" spans="1:6" x14ac:dyDescent="0.25">
@@ -10889,7 +10888,7 @@
       </c>
       <c r="F450">
         <f t="shared" si="6"/>
-        <v>145</v>
+        <v>3</v>
       </c>
     </row>
     <row r="451" spans="1:6" x14ac:dyDescent="0.25">
@@ -10910,7 +10909,7 @@
       </c>
       <c r="F451">
         <f t="shared" si="6"/>
-        <v>145</v>
+        <v>3</v>
       </c>
     </row>
     <row r="452" spans="1:6" x14ac:dyDescent="0.25">
@@ -10931,7 +10930,7 @@
       </c>
       <c r="F452">
         <f t="shared" si="6"/>
-        <v>145</v>
+        <v>3</v>
       </c>
     </row>
     <row r="453" spans="1:6" x14ac:dyDescent="0.25">
@@ -10952,7 +10951,7 @@
       </c>
       <c r="F453">
         <f t="shared" si="6"/>
-        <v>146</v>
+        <v>4</v>
       </c>
     </row>
     <row r="454" spans="1:6" x14ac:dyDescent="0.25">
@@ -10972,8 +10971,8 @@
         <v>0</v>
       </c>
       <c r="F454">
-        <f t="shared" ref="F454:F501" si="7">IF(F453=0,1,IF(AND(F453=5,C453&gt;20),0,IF(AND(F453=F452,F452=F451),F453+1,F453)))</f>
-        <v>146</v>
+        <f t="shared" ref="F454:F501" si="7">IF(F453=0,1,IF(AND(F453=5,C453&gt;20),0,IF(AND(F453=F452,F452=F451),IF(F453&lt;5,F453+1,F453),F453)))</f>
+        <v>4</v>
       </c>
     </row>
     <row r="455" spans="1:6" x14ac:dyDescent="0.25">
@@ -10994,7 +10993,7 @@
       </c>
       <c r="F455">
         <f t="shared" si="7"/>
-        <v>146</v>
+        <v>4</v>
       </c>
     </row>
     <row r="456" spans="1:6" x14ac:dyDescent="0.25">
@@ -11015,7 +11014,7 @@
       </c>
       <c r="F456">
         <f t="shared" si="7"/>
-        <v>147</v>
+        <v>5</v>
       </c>
     </row>
     <row r="457" spans="1:6" x14ac:dyDescent="0.25">
@@ -11036,7 +11035,7 @@
       </c>
       <c r="F457">
         <f t="shared" si="7"/>
-        <v>147</v>
+        <v>5</v>
       </c>
     </row>
     <row r="458" spans="1:6" x14ac:dyDescent="0.25">
@@ -11057,7 +11056,7 @@
       </c>
       <c r="F458">
         <f t="shared" si="7"/>
-        <v>147</v>
+        <v>5</v>
       </c>
     </row>
     <row r="459" spans="1:6" x14ac:dyDescent="0.25">
@@ -11078,7 +11077,7 @@
       </c>
       <c r="F459">
         <f t="shared" si="7"/>
-        <v>148</v>
+        <v>5</v>
       </c>
     </row>
     <row r="460" spans="1:6" x14ac:dyDescent="0.25">
@@ -11099,7 +11098,7 @@
       </c>
       <c r="F460">
         <f t="shared" si="7"/>
-        <v>148</v>
+        <v>5</v>
       </c>
     </row>
     <row r="461" spans="1:6" x14ac:dyDescent="0.25">
@@ -11120,7 +11119,7 @@
       </c>
       <c r="F461">
         <f t="shared" si="7"/>
-        <v>148</v>
+        <v>0</v>
       </c>
     </row>
     <row r="462" spans="1:6" x14ac:dyDescent="0.25">
@@ -11141,7 +11140,7 @@
       </c>
       <c r="F462">
         <f t="shared" si="7"/>
-        <v>149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="463" spans="1:6" x14ac:dyDescent="0.25">
@@ -11162,7 +11161,7 @@
       </c>
       <c r="F463">
         <f t="shared" si="7"/>
-        <v>149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="464" spans="1:6" x14ac:dyDescent="0.25">
@@ -11183,7 +11182,7 @@
       </c>
       <c r="F464">
         <f t="shared" si="7"/>
-        <v>149</v>
+        <v>1</v>
       </c>
     </row>
     <row r="465" spans="1:6" x14ac:dyDescent="0.25">
@@ -11204,7 +11203,7 @@
       </c>
       <c r="F465">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:6" x14ac:dyDescent="0.25">
@@ -11225,7 +11224,7 @@
       </c>
       <c r="F466">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:6" x14ac:dyDescent="0.25">
@@ -11246,7 +11245,7 @@
       </c>
       <c r="F467">
         <f t="shared" si="7"/>
-        <v>150</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:6" x14ac:dyDescent="0.25">
@@ -11267,7 +11266,7 @@
       </c>
       <c r="F468">
         <f t="shared" si="7"/>
-        <v>151</v>
+        <v>3</v>
       </c>
     </row>
     <row r="469" spans="1:6" x14ac:dyDescent="0.25">
@@ -11288,7 +11287,7 @@
       </c>
       <c r="F469">
         <f t="shared" si="7"/>
-        <v>151</v>
+        <v>3</v>
       </c>
     </row>
     <row r="470" spans="1:6" x14ac:dyDescent="0.25">
@@ -11309,7 +11308,7 @@
       </c>
       <c r="F470">
         <f t="shared" si="7"/>
-        <v>151</v>
+        <v>3</v>
       </c>
     </row>
     <row r="471" spans="1:6" x14ac:dyDescent="0.25">
@@ -11330,7 +11329,7 @@
       </c>
       <c r="F471">
         <f t="shared" si="7"/>
-        <v>152</v>
+        <v>4</v>
       </c>
     </row>
     <row r="472" spans="1:6" x14ac:dyDescent="0.25">
@@ -11351,7 +11350,7 @@
       </c>
       <c r="F472">
         <f t="shared" si="7"/>
-        <v>152</v>
+        <v>4</v>
       </c>
     </row>
     <row r="473" spans="1:6" x14ac:dyDescent="0.25">
@@ -11372,7 +11371,7 @@
       </c>
       <c r="F473">
         <f t="shared" si="7"/>
-        <v>152</v>
+        <v>4</v>
       </c>
     </row>
     <row r="474" spans="1:6" x14ac:dyDescent="0.25">
@@ -11393,7 +11392,7 @@
       </c>
       <c r="F474">
         <f t="shared" si="7"/>
-        <v>153</v>
+        <v>5</v>
       </c>
     </row>
     <row r="475" spans="1:6" x14ac:dyDescent="0.25">
@@ -11414,7 +11413,7 @@
       </c>
       <c r="F475">
         <f t="shared" si="7"/>
-        <v>153</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:6" x14ac:dyDescent="0.25">
@@ -11435,7 +11434,7 @@
       </c>
       <c r="F476">
         <f t="shared" si="7"/>
-        <v>153</v>
+        <v>1</v>
       </c>
     </row>
     <row r="477" spans="1:6" x14ac:dyDescent="0.25">
@@ -11456,7 +11455,7 @@
       </c>
       <c r="F477">
         <f t="shared" si="7"/>
-        <v>154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="478" spans="1:6" x14ac:dyDescent="0.25">
@@ -11477,7 +11476,7 @@
       </c>
       <c r="F478">
         <f t="shared" si="7"/>
-        <v>154</v>
+        <v>1</v>
       </c>
     </row>
     <row r="479" spans="1:6" x14ac:dyDescent="0.25">
@@ -11498,7 +11497,7 @@
       </c>
       <c r="F479">
         <f t="shared" si="7"/>
-        <v>154</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:6" x14ac:dyDescent="0.25">
@@ -11519,7 +11518,7 @@
       </c>
       <c r="F480">
         <f t="shared" si="7"/>
-        <v>155</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:6" x14ac:dyDescent="0.25">
@@ -11540,7 +11539,7 @@
       </c>
       <c r="F481">
         <f t="shared" si="7"/>
-        <v>155</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:6" x14ac:dyDescent="0.25">
@@ -11561,7 +11560,7 @@
       </c>
       <c r="F482">
         <f t="shared" si="7"/>
-        <v>155</v>
+        <v>3</v>
       </c>
     </row>
     <row r="483" spans="1:6" x14ac:dyDescent="0.25">
@@ -11582,7 +11581,7 @@
       </c>
       <c r="F483">
         <f t="shared" si="7"/>
-        <v>156</v>
+        <v>3</v>
       </c>
     </row>
     <row r="484" spans="1:6" x14ac:dyDescent="0.25">
@@ -11603,7 +11602,7 @@
       </c>
       <c r="F484">
         <f t="shared" si="7"/>
-        <v>156</v>
+        <v>3</v>
       </c>
     </row>
     <row r="485" spans="1:6" x14ac:dyDescent="0.25">
@@ -11624,7 +11623,7 @@
       </c>
       <c r="F485">
         <f t="shared" si="7"/>
-        <v>156</v>
+        <v>4</v>
       </c>
     </row>
     <row r="486" spans="1:6" x14ac:dyDescent="0.25">
@@ -11645,7 +11644,7 @@
       </c>
       <c r="F486">
         <f t="shared" si="7"/>
-        <v>157</v>
+        <v>4</v>
       </c>
     </row>
     <row r="487" spans="1:6" x14ac:dyDescent="0.25">
@@ -11666,7 +11665,7 @@
       </c>
       <c r="F487">
         <f t="shared" si="7"/>
-        <v>157</v>
+        <v>4</v>
       </c>
     </row>
     <row r="488" spans="1:6" x14ac:dyDescent="0.25">
@@ -11687,7 +11686,7 @@
       </c>
       <c r="F488">
         <f t="shared" si="7"/>
-        <v>157</v>
+        <v>5</v>
       </c>
     </row>
     <row r="489" spans="1:6" x14ac:dyDescent="0.25">
@@ -11708,7 +11707,7 @@
       </c>
       <c r="F489">
         <f t="shared" si="7"/>
-        <v>158</v>
+        <v>5</v>
       </c>
     </row>
     <row r="490" spans="1:6" x14ac:dyDescent="0.25">
@@ -11729,7 +11728,7 @@
       </c>
       <c r="F490">
         <f t="shared" si="7"/>
-        <v>158</v>
+        <v>5</v>
       </c>
     </row>
     <row r="491" spans="1:6" x14ac:dyDescent="0.25">
@@ -11750,7 +11749,7 @@
       </c>
       <c r="F491">
         <f t="shared" si="7"/>
-        <v>158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492" spans="1:6" x14ac:dyDescent="0.25">
@@ -11771,7 +11770,7 @@
       </c>
       <c r="F492">
         <f t="shared" si="7"/>
-        <v>159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="493" spans="1:6" x14ac:dyDescent="0.25">
@@ -11792,7 +11791,7 @@
       </c>
       <c r="F493">
         <f t="shared" si="7"/>
-        <v>159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="494" spans="1:6" x14ac:dyDescent="0.25">
@@ -11813,7 +11812,7 @@
       </c>
       <c r="F494">
         <f t="shared" si="7"/>
-        <v>159</v>
+        <v>1</v>
       </c>
     </row>
     <row r="495" spans="1:6" x14ac:dyDescent="0.25">
@@ -11834,7 +11833,7 @@
       </c>
       <c r="F495">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>2</v>
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
@@ -11855,7 +11854,7 @@
       </c>
       <c r="F496">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>2</v>
       </c>
     </row>
     <row r="497" spans="1:6" x14ac:dyDescent="0.25">
@@ -11876,7 +11875,7 @@
       </c>
       <c r="F497">
         <f t="shared" si="7"/>
-        <v>160</v>
+        <v>2</v>
       </c>
     </row>
     <row r="498" spans="1:6" x14ac:dyDescent="0.25">
@@ -11897,7 +11896,7 @@
       </c>
       <c r="F498">
         <f t="shared" si="7"/>
-        <v>161</v>
+        <v>3</v>
       </c>
     </row>
     <row r="499" spans="1:6" x14ac:dyDescent="0.25">
@@ -11918,7 +11917,7 @@
       </c>
       <c r="F499">
         <f t="shared" si="7"/>
-        <v>161</v>
+        <v>3</v>
       </c>
     </row>
     <row r="500" spans="1:6" x14ac:dyDescent="0.25">
@@ -11939,7 +11938,7 @@
       </c>
       <c r="F500">
         <f t="shared" si="7"/>
-        <v>161</v>
+        <v>3</v>
       </c>
     </row>
     <row r="501" spans="1:6" x14ac:dyDescent="0.25">
@@ -11960,7 +11959,7 @@
       </c>
       <c r="F501">
         <f t="shared" si="7"/>
-        <v>162</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -33121,7 +33120,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="str">
-        <f>CONCATENATE(D2,E2)</f>
+        <f t="shared" ref="F2:F22" si="0">CONCATENATE(D2,E2)</f>
         <v>00</v>
       </c>
     </row>
@@ -33142,7 +33141,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="str">
-        <f>CONCATENATE(D3,E3)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33163,7 +33162,7 @@
         <v>0</v>
       </c>
       <c r="F4" t="str">
-        <f>CONCATENATE(D4,E4)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33184,7 +33183,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="str">
-        <f>CONCATENATE(D5,E5)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33205,7 +33204,7 @@
         <v>0</v>
       </c>
       <c r="F6" t="str">
-        <f>CONCATENATE(D6,E6)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33226,7 +33225,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="str">
-        <f>CONCATENATE(D7,E7)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33247,7 +33246,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="str">
-        <f>CONCATENATE(D8,E8)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33268,7 +33267,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="str">
-        <f>CONCATENATE(D9,E9)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33289,7 +33288,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="str">
-        <f>CONCATENATE(D10,E10)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33310,7 +33309,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="str">
-        <f>CONCATENATE(D11,E11)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33331,7 +33330,7 @@
         <v>0</v>
       </c>
       <c r="F12" t="str">
-        <f>CONCATENATE(D12,E12)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33352,7 +33351,7 @@
         <v>0</v>
       </c>
       <c r="F13" t="str">
-        <f>CONCATENATE(D13,E13)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33373,7 +33372,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="str">
-        <f>CONCATENATE(D14,E14)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33394,7 +33393,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="str">
-        <f>CONCATENATE(D15,E15)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33415,7 +33414,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="str">
-        <f>CONCATENATE(D16,E16)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33436,7 +33435,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="str">
-        <f>CONCATENATE(D17,E17)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33457,7 +33456,7 @@
         <v>0</v>
       </c>
       <c r="F18" t="str">
-        <f>CONCATENATE(D18,E18)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33478,7 +33477,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="str">
-        <f>CONCATENATE(D19,E19)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33499,7 +33498,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="str">
-        <f>CONCATENATE(D20,E20)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33520,7 +33519,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="str">
-        <f>CONCATENATE(D21,E21)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33541,7 +33540,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="str">
-        <f>CONCATENATE(D22,E22)</f>
+        <f t="shared" si="0"/>
         <v>00</v>
       </c>
     </row>
@@ -33571,7 +33570,7 @@
         <v>1</v>
       </c>
       <c r="F24" t="str">
-        <f>CONCATENATE(D24,E24)</f>
+        <f t="shared" ref="F24:F62" si="1">CONCATENATE(D24,E24)</f>
         <v>C1</v>
       </c>
     </row>
@@ -33592,7 +33591,7 @@
         <v>1</v>
       </c>
       <c r="F25" t="str">
-        <f>CONCATENATE(D25,E25)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33613,7 +33612,7 @@
         <v>1</v>
       </c>
       <c r="F26" t="str">
-        <f>CONCATENATE(D26,E26)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33634,7 +33633,7 @@
         <v>1</v>
       </c>
       <c r="F27" t="str">
-        <f>CONCATENATE(D27,E27)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33655,7 +33654,7 @@
         <v>1</v>
       </c>
       <c r="F28" t="str">
-        <f>CONCATENATE(D28,E28)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33676,7 +33675,7 @@
         <v>1</v>
       </c>
       <c r="F29" t="str">
-        <f>CONCATENATE(D29,E29)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33697,7 +33696,7 @@
         <v>1</v>
       </c>
       <c r="F30" t="str">
-        <f>CONCATENATE(D30,E30)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33718,7 +33717,7 @@
         <v>1</v>
       </c>
       <c r="F31" t="str">
-        <f>CONCATENATE(D31,E31)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33739,7 +33738,7 @@
         <v>1</v>
       </c>
       <c r="F32" t="str">
-        <f>CONCATENATE(D32,E32)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33760,7 +33759,7 @@
         <v>1</v>
       </c>
       <c r="F33" t="str">
-        <f>CONCATENATE(D33,E33)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33781,7 +33780,7 @@
         <v>1</v>
       </c>
       <c r="F34" t="str">
-        <f>CONCATENATE(D34,E34)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33802,7 +33801,7 @@
         <v>1</v>
       </c>
       <c r="F35" t="str">
-        <f>CONCATENATE(D35,E35)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33823,7 +33822,7 @@
         <v>1</v>
       </c>
       <c r="F36" t="str">
-        <f>CONCATENATE(D36,E36)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33844,7 +33843,7 @@
         <v>1</v>
       </c>
       <c r="F37" t="str">
-        <f>CONCATENATE(D37,E37)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33865,7 +33864,7 @@
         <v>1</v>
       </c>
       <c r="F38" t="str">
-        <f>CONCATENATE(D38,E38)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33886,7 +33885,7 @@
         <v>1</v>
       </c>
       <c r="F39" t="str">
-        <f>CONCATENATE(D39,E39)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33907,7 +33906,7 @@
         <v>1</v>
       </c>
       <c r="F40" t="str">
-        <f>CONCATENATE(D40,E40)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33928,7 +33927,7 @@
         <v>1</v>
       </c>
       <c r="F41" t="str">
-        <f>CONCATENATE(D41,E41)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33949,7 +33948,7 @@
         <v>1</v>
       </c>
       <c r="F42" t="str">
-        <f>CONCATENATE(D42,E42)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33970,7 +33969,7 @@
         <v>1</v>
       </c>
       <c r="F43" t="str">
-        <f>CONCATENATE(D43,E43)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -33991,7 +33990,7 @@
         <v>1</v>
       </c>
       <c r="F44" t="str">
-        <f>CONCATENATE(D44,E44)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34012,7 +34011,7 @@
         <v>1</v>
       </c>
       <c r="F45" t="str">
-        <f>CONCATENATE(D45,E45)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34033,7 +34032,7 @@
         <v>1</v>
       </c>
       <c r="F46" t="str">
-        <f>CONCATENATE(D46,E46)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34054,7 +34053,7 @@
         <v>1</v>
       </c>
       <c r="F47" t="str">
-        <f>CONCATENATE(D47,E47)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34075,7 +34074,7 @@
         <v>1</v>
       </c>
       <c r="F48" t="str">
-        <f>CONCATENATE(D48,E48)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34096,7 +34095,7 @@
         <v>1</v>
       </c>
       <c r="F49" t="str">
-        <f>CONCATENATE(D49,E49)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34117,7 +34116,7 @@
         <v>1</v>
       </c>
       <c r="F50" t="str">
-        <f>CONCATENATE(D50,E50)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34138,7 +34137,7 @@
         <v>1</v>
       </c>
       <c r="F51" t="str">
-        <f>CONCATENATE(D51,E51)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34159,7 +34158,7 @@
         <v>1</v>
       </c>
       <c r="F52" t="str">
-        <f>CONCATENATE(D52,E52)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34180,7 +34179,7 @@
         <v>1</v>
       </c>
       <c r="F53" t="str">
-        <f>CONCATENATE(D53,E53)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34201,7 +34200,7 @@
         <v>1</v>
       </c>
       <c r="F54" t="str">
-        <f>CONCATENATE(D54,E54)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34222,7 +34221,7 @@
         <v>1</v>
       </c>
       <c r="F55" t="str">
-        <f>CONCATENATE(D55,E55)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34243,7 +34242,7 @@
         <v>1</v>
       </c>
       <c r="F56" t="str">
-        <f>CONCATENATE(D56,E56)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34264,7 +34263,7 @@
         <v>1</v>
       </c>
       <c r="F57" t="str">
-        <f>CONCATENATE(D57,E57)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34285,7 +34284,7 @@
         <v>1</v>
       </c>
       <c r="F58" t="str">
-        <f>CONCATENATE(D58,E58)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34306,7 +34305,7 @@
         <v>1</v>
       </c>
       <c r="F59" t="str">
-        <f>CONCATENATE(D59,E59)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34327,7 +34326,7 @@
         <v>1</v>
       </c>
       <c r="F60" t="str">
-        <f>CONCATENATE(D60,E60)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34348,7 +34347,7 @@
         <v>1</v>
       </c>
       <c r="F61" t="str">
-        <f>CONCATENATE(D61,E61)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34369,7 +34368,7 @@
         <v>1</v>
       </c>
       <c r="F62" t="str">
-        <f>CONCATENATE(D62,E62)</f>
+        <f t="shared" si="1"/>
         <v>C1</v>
       </c>
     </row>
@@ -34399,7 +34398,7 @@
         <v>2</v>
       </c>
       <c r="F64" t="str">
-        <f>CONCATENATE(D64,E64)</f>
+        <f t="shared" ref="F64:F102" si="2">CONCATENATE(D64,E64)</f>
         <v>C2</v>
       </c>
     </row>
@@ -34420,7 +34419,7 @@
         <v>2</v>
       </c>
       <c r="F65" t="str">
-        <f>CONCATENATE(D65,E65)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34441,7 +34440,7 @@
         <v>2</v>
       </c>
       <c r="F66" t="str">
-        <f>CONCATENATE(D66,E66)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34462,7 +34461,7 @@
         <v>2</v>
       </c>
       <c r="F67" t="str">
-        <f>CONCATENATE(D67,E67)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34483,7 +34482,7 @@
         <v>2</v>
       </c>
       <c r="F68" t="str">
-        <f>CONCATENATE(D68,E68)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34504,7 +34503,7 @@
         <v>2</v>
       </c>
       <c r="F69" t="str">
-        <f>CONCATENATE(D69,E69)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34525,7 +34524,7 @@
         <v>2</v>
       </c>
       <c r="F70" t="str">
-        <f>CONCATENATE(D70,E70)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34546,7 +34545,7 @@
         <v>2</v>
       </c>
       <c r="F71" t="str">
-        <f>CONCATENATE(D71,E71)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34567,7 +34566,7 @@
         <v>2</v>
       </c>
       <c r="F72" t="str">
-        <f>CONCATENATE(D72,E72)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34588,7 +34587,7 @@
         <v>2</v>
       </c>
       <c r="F73" t="str">
-        <f>CONCATENATE(D73,E73)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34609,7 +34608,7 @@
         <v>2</v>
       </c>
       <c r="F74" t="str">
-        <f>CONCATENATE(D74,E74)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34630,7 +34629,7 @@
         <v>2</v>
       </c>
       <c r="F75" t="str">
-        <f>CONCATENATE(D75,E75)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34651,7 +34650,7 @@
         <v>2</v>
       </c>
       <c r="F76" t="str">
-        <f>CONCATENATE(D76,E76)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34672,7 +34671,7 @@
         <v>2</v>
       </c>
       <c r="F77" t="str">
-        <f>CONCATENATE(D77,E77)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34693,7 +34692,7 @@
         <v>2</v>
       </c>
       <c r="F78" t="str">
-        <f>CONCATENATE(D78,E78)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34714,7 +34713,7 @@
         <v>2</v>
       </c>
       <c r="F79" t="str">
-        <f>CONCATENATE(D79,E79)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34735,7 +34734,7 @@
         <v>2</v>
       </c>
       <c r="F80" t="str">
-        <f>CONCATENATE(D80,E80)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34756,7 +34755,7 @@
         <v>2</v>
       </c>
       <c r="F81" t="str">
-        <f>CONCATENATE(D81,E81)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34777,7 +34776,7 @@
         <v>2</v>
       </c>
       <c r="F82" t="str">
-        <f>CONCATENATE(D82,E82)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34798,7 +34797,7 @@
         <v>2</v>
       </c>
       <c r="F83" t="str">
-        <f>CONCATENATE(D83,E83)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34819,7 +34818,7 @@
         <v>2</v>
       </c>
       <c r="F84" t="str">
-        <f>CONCATENATE(D84,E84)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34840,7 +34839,7 @@
         <v>2</v>
       </c>
       <c r="F85" t="str">
-        <f>CONCATENATE(D85,E85)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34861,7 +34860,7 @@
         <v>2</v>
       </c>
       <c r="F86" t="str">
-        <f>CONCATENATE(D86,E86)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34882,7 +34881,7 @@
         <v>2</v>
       </c>
       <c r="F87" t="str">
-        <f>CONCATENATE(D87,E87)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34903,7 +34902,7 @@
         <v>2</v>
       </c>
       <c r="F88" t="str">
-        <f>CONCATENATE(D88,E88)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34924,7 +34923,7 @@
         <v>2</v>
       </c>
       <c r="F89" t="str">
-        <f>CONCATENATE(D89,E89)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34945,7 +34944,7 @@
         <v>2</v>
       </c>
       <c r="F90" t="str">
-        <f>CONCATENATE(D90,E90)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34966,7 +34965,7 @@
         <v>2</v>
       </c>
       <c r="F91" t="str">
-        <f>CONCATENATE(D91,E91)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -34987,7 +34986,7 @@
         <v>2</v>
       </c>
       <c r="F92" t="str">
-        <f>CONCATENATE(D92,E92)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -35008,7 +35007,7 @@
         <v>2</v>
       </c>
       <c r="F93" t="str">
-        <f>CONCATENATE(D93,E93)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -35029,7 +35028,7 @@
         <v>2</v>
       </c>
       <c r="F94" t="str">
-        <f>CONCATENATE(D94,E94)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -35050,7 +35049,7 @@
         <v>2</v>
       </c>
       <c r="F95" t="str">
-        <f>CONCATENATE(D95,E95)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -35071,7 +35070,7 @@
         <v>2</v>
       </c>
       <c r="F96" t="str">
-        <f>CONCATENATE(D96,E96)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -35092,7 +35091,7 @@
         <v>2</v>
       </c>
       <c r="F97" t="str">
-        <f>CONCATENATE(D97,E97)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -35113,7 +35112,7 @@
         <v>2</v>
       </c>
       <c r="F98" t="str">
-        <f>CONCATENATE(D98,E98)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -35134,7 +35133,7 @@
         <v>2</v>
       </c>
       <c r="F99" t="str">
-        <f>CONCATENATE(D99,E99)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -35155,7 +35154,7 @@
         <v>2</v>
       </c>
       <c r="F100" t="str">
-        <f>CONCATENATE(D100,E100)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -35176,7 +35175,7 @@
         <v>2</v>
       </c>
       <c r="F101" t="str">
-        <f>CONCATENATE(D101,E101)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -35197,7 +35196,7 @@
         <v>2</v>
       </c>
       <c r="F102" t="str">
-        <f>CONCATENATE(D102,E102)</f>
+        <f t="shared" si="2"/>
         <v>C2</v>
       </c>
     </row>
@@ -35227,7 +35226,7 @@
         <v>3</v>
       </c>
       <c r="F104" t="str">
-        <f>CONCATENATE(D104,E104)</f>
+        <f t="shared" ref="F104:F142" si="3">CONCATENATE(D104,E104)</f>
         <v>C3</v>
       </c>
     </row>
@@ -35248,7 +35247,7 @@
         <v>3</v>
       </c>
       <c r="F105" t="str">
-        <f>CONCATENATE(D105,E105)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35269,7 +35268,7 @@
         <v>3</v>
       </c>
       <c r="F106" t="str">
-        <f>CONCATENATE(D106,E106)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35290,7 +35289,7 @@
         <v>3</v>
       </c>
       <c r="F107" t="str">
-        <f>CONCATENATE(D107,E107)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35311,7 +35310,7 @@
         <v>3</v>
       </c>
       <c r="F108" t="str">
-        <f>CONCATENATE(D108,E108)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35332,7 +35331,7 @@
         <v>3</v>
       </c>
       <c r="F109" t="str">
-        <f>CONCATENATE(D109,E109)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35353,7 +35352,7 @@
         <v>3</v>
       </c>
       <c r="F110" t="str">
-        <f>CONCATENATE(D110,E110)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35374,7 +35373,7 @@
         <v>3</v>
       </c>
       <c r="F111" t="str">
-        <f>CONCATENATE(D111,E111)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35395,7 +35394,7 @@
         <v>3</v>
       </c>
       <c r="F112" t="str">
-        <f>CONCATENATE(D112,E112)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35416,7 +35415,7 @@
         <v>3</v>
       </c>
       <c r="F113" t="str">
-        <f>CONCATENATE(D113,E113)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35437,7 +35436,7 @@
         <v>3</v>
       </c>
       <c r="F114" t="str">
-        <f>CONCATENATE(D114,E114)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35458,7 +35457,7 @@
         <v>3</v>
       </c>
       <c r="F115" t="str">
-        <f>CONCATENATE(D115,E115)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35479,7 +35478,7 @@
         <v>3</v>
       </c>
       <c r="F116" t="str">
-        <f>CONCATENATE(D116,E116)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35500,7 +35499,7 @@
         <v>3</v>
       </c>
       <c r="F117" t="str">
-        <f>CONCATENATE(D117,E117)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35521,7 +35520,7 @@
         <v>3</v>
       </c>
       <c r="F118" t="str">
-        <f>CONCATENATE(D118,E118)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35542,7 +35541,7 @@
         <v>3</v>
       </c>
       <c r="F119" t="str">
-        <f>CONCATENATE(D119,E119)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35563,7 +35562,7 @@
         <v>3</v>
       </c>
       <c r="F120" t="str">
-        <f>CONCATENATE(D120,E120)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35584,7 +35583,7 @@
         <v>3</v>
       </c>
       <c r="F121" t="str">
-        <f>CONCATENATE(D121,E121)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35605,7 +35604,7 @@
         <v>3</v>
       </c>
       <c r="F122" t="str">
-        <f>CONCATENATE(D122,E122)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35626,7 +35625,7 @@
         <v>3</v>
       </c>
       <c r="F123" t="str">
-        <f>CONCATENATE(D123,E123)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35647,7 +35646,7 @@
         <v>3</v>
       </c>
       <c r="F124" t="str">
-        <f>CONCATENATE(D124,E124)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35668,7 +35667,7 @@
         <v>3</v>
       </c>
       <c r="F125" t="str">
-        <f>CONCATENATE(D125,E125)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35689,7 +35688,7 @@
         <v>3</v>
       </c>
       <c r="F126" t="str">
-        <f>CONCATENATE(D126,E126)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35710,7 +35709,7 @@
         <v>3</v>
       </c>
       <c r="F127" t="str">
-        <f>CONCATENATE(D127,E127)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35731,7 +35730,7 @@
         <v>3</v>
       </c>
       <c r="F128" t="str">
-        <f>CONCATENATE(D128,E128)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35752,7 +35751,7 @@
         <v>3</v>
       </c>
       <c r="F129" t="str">
-        <f>CONCATENATE(D129,E129)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35773,7 +35772,7 @@
         <v>3</v>
       </c>
       <c r="F130" t="str">
-        <f>CONCATENATE(D130,E130)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35794,7 +35793,7 @@
         <v>3</v>
       </c>
       <c r="F131" t="str">
-        <f>CONCATENATE(D131,E131)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35815,7 +35814,7 @@
         <v>3</v>
       </c>
       <c r="F132" t="str">
-        <f>CONCATENATE(D132,E132)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35836,7 +35835,7 @@
         <v>3</v>
       </c>
       <c r="F133" t="str">
-        <f>CONCATENATE(D133,E133)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35857,7 +35856,7 @@
         <v>3</v>
       </c>
       <c r="F134" t="str">
-        <f>CONCATENATE(D134,E134)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35878,7 +35877,7 @@
         <v>3</v>
       </c>
       <c r="F135" t="str">
-        <f>CONCATENATE(D135,E135)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35899,7 +35898,7 @@
         <v>3</v>
       </c>
       <c r="F136" t="str">
-        <f>CONCATENATE(D136,E136)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35920,7 +35919,7 @@
         <v>3</v>
       </c>
       <c r="F137" t="str">
-        <f>CONCATENATE(D137,E137)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35941,7 +35940,7 @@
         <v>3</v>
       </c>
       <c r="F138" t="str">
-        <f>CONCATENATE(D138,E138)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35962,7 +35961,7 @@
         <v>3</v>
       </c>
       <c r="F139" t="str">
-        <f>CONCATENATE(D139,E139)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -35983,7 +35982,7 @@
         <v>3</v>
       </c>
       <c r="F140" t="str">
-        <f>CONCATENATE(D140,E140)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -36004,7 +36003,7 @@
         <v>3</v>
       </c>
       <c r="F141" t="str">
-        <f>CONCATENATE(D141,E141)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -36025,7 +36024,7 @@
         <v>3</v>
       </c>
       <c r="F142" t="str">
-        <f>CONCATENATE(D142,E142)</f>
+        <f t="shared" si="3"/>
         <v>C3</v>
       </c>
     </row>
@@ -36055,7 +36054,7 @@
         <v>4</v>
       </c>
       <c r="F144" t="str">
-        <f>CONCATENATE(D144,E144)</f>
+        <f t="shared" ref="F144:F181" si="4">CONCATENATE(D144,E144)</f>
         <v>C4</v>
       </c>
     </row>
@@ -36076,7 +36075,7 @@
         <v>4</v>
       </c>
       <c r="F145" t="str">
-        <f>CONCATENATE(D145,E145)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36097,7 +36096,7 @@
         <v>4</v>
       </c>
       <c r="F146" t="str">
-        <f>CONCATENATE(D146,E146)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36118,7 +36117,7 @@
         <v>4</v>
       </c>
       <c r="F147" t="str">
-        <f>CONCATENATE(D147,E147)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36139,7 +36138,7 @@
         <v>4</v>
       </c>
       <c r="F148" t="str">
-        <f>CONCATENATE(D148,E148)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36160,7 +36159,7 @@
         <v>4</v>
       </c>
       <c r="F149" t="str">
-        <f>CONCATENATE(D149,E149)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36181,7 +36180,7 @@
         <v>4</v>
       </c>
       <c r="F150" t="str">
-        <f>CONCATENATE(D150,E150)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36202,7 +36201,7 @@
         <v>4</v>
       </c>
       <c r="F151" t="str">
-        <f>CONCATENATE(D151,E151)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36223,7 +36222,7 @@
         <v>4</v>
       </c>
       <c r="F152" t="str">
-        <f>CONCATENATE(D152,E152)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36244,7 +36243,7 @@
         <v>4</v>
       </c>
       <c r="F153" t="str">
-        <f>CONCATENATE(D153,E153)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36265,7 +36264,7 @@
         <v>4</v>
       </c>
       <c r="F154" t="str">
-        <f>CONCATENATE(D154,E154)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36286,7 +36285,7 @@
         <v>4</v>
       </c>
       <c r="F155" t="str">
-        <f>CONCATENATE(D155,E155)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36307,7 +36306,7 @@
         <v>4</v>
       </c>
       <c r="F156" t="str">
-        <f>CONCATENATE(D156,E156)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36328,7 +36327,7 @@
         <v>4</v>
       </c>
       <c r="F157" t="str">
-        <f>CONCATENATE(D157,E157)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36349,7 +36348,7 @@
         <v>4</v>
       </c>
       <c r="F158" t="str">
-        <f>CONCATENATE(D158,E158)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36370,7 +36369,7 @@
         <v>4</v>
       </c>
       <c r="F159" t="str">
-        <f>CONCATENATE(D159,E159)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36391,7 +36390,7 @@
         <v>4</v>
       </c>
       <c r="F160" t="str">
-        <f>CONCATENATE(D160,E160)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36412,7 +36411,7 @@
         <v>4</v>
       </c>
       <c r="F161" t="str">
-        <f>CONCATENATE(D161,E161)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36433,7 +36432,7 @@
         <v>4</v>
       </c>
       <c r="F162" t="str">
-        <f>CONCATENATE(D162,E162)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36454,7 +36453,7 @@
         <v>4</v>
       </c>
       <c r="F163" t="str">
-        <f>CONCATENATE(D163,E163)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36475,7 +36474,7 @@
         <v>4</v>
       </c>
       <c r="F164" t="str">
-        <f>CONCATENATE(D164,E164)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36496,7 +36495,7 @@
         <v>4</v>
       </c>
       <c r="F165" t="str">
-        <f>CONCATENATE(D165,E165)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36517,7 +36516,7 @@
         <v>4</v>
       </c>
       <c r="F166" t="str">
-        <f>CONCATENATE(D166,E166)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36538,7 +36537,7 @@
         <v>4</v>
       </c>
       <c r="F167" t="str">
-        <f>CONCATENATE(D167,E167)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36559,7 +36558,7 @@
         <v>4</v>
       </c>
       <c r="F168" t="str">
-        <f>CONCATENATE(D168,E168)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36580,7 +36579,7 @@
         <v>4</v>
       </c>
       <c r="F169" t="str">
-        <f>CONCATENATE(D169,E169)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36601,7 +36600,7 @@
         <v>4</v>
       </c>
       <c r="F170" t="str">
-        <f>CONCATENATE(D170,E170)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36622,7 +36621,7 @@
         <v>4</v>
       </c>
       <c r="F171" t="str">
-        <f>CONCATENATE(D171,E171)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36643,7 +36642,7 @@
         <v>4</v>
       </c>
       <c r="F172" t="str">
-        <f>CONCATENATE(D172,E172)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36664,7 +36663,7 @@
         <v>4</v>
       </c>
       <c r="F173" t="str">
-        <f>CONCATENATE(D173,E173)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36685,7 +36684,7 @@
         <v>4</v>
       </c>
       <c r="F174" t="str">
-        <f>CONCATENATE(D174,E174)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36706,7 +36705,7 @@
         <v>4</v>
       </c>
       <c r="F175" t="str">
-        <f>CONCATENATE(D175,E175)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36727,7 +36726,7 @@
         <v>4</v>
       </c>
       <c r="F176" t="str">
-        <f>CONCATENATE(D176,E176)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36748,7 +36747,7 @@
         <v>4</v>
       </c>
       <c r="F177" t="str">
-        <f>CONCATENATE(D177,E177)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36769,7 +36768,7 @@
         <v>4</v>
       </c>
       <c r="F178" t="str">
-        <f>CONCATENATE(D178,E178)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36790,7 +36789,7 @@
         <v>4</v>
       </c>
       <c r="F179" t="str">
-        <f>CONCATENATE(D179,E179)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36811,7 +36810,7 @@
         <v>4</v>
       </c>
       <c r="F180" t="str">
-        <f>CONCATENATE(D180,E180)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36832,7 +36831,7 @@
         <v>4</v>
       </c>
       <c r="F181" t="str">
-        <f>CONCATENATE(D181,E181)</f>
+        <f t="shared" si="4"/>
         <v>C4</v>
       </c>
     </row>
@@ -36862,7 +36861,7 @@
         <v>5</v>
       </c>
       <c r="F183" t="str">
-        <f>CONCATENATE(D183,E183)</f>
+        <f t="shared" ref="F183:F207" si="5">CONCATENATE(D183,E183)</f>
         <v>C5</v>
       </c>
     </row>
@@ -36883,7 +36882,7 @@
         <v>5</v>
       </c>
       <c r="F184" t="str">
-        <f>CONCATENATE(D184,E184)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -36904,7 +36903,7 @@
         <v>5</v>
       </c>
       <c r="F185" t="str">
-        <f>CONCATENATE(D185,E185)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -36925,7 +36924,7 @@
         <v>5</v>
       </c>
       <c r="F186" t="str">
-        <f>CONCATENATE(D186,E186)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -36946,7 +36945,7 @@
         <v>5</v>
       </c>
       <c r="F187" t="str">
-        <f>CONCATENATE(D187,E187)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -36967,7 +36966,7 @@
         <v>5</v>
       </c>
       <c r="F188" t="str">
-        <f>CONCATENATE(D188,E188)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -36988,7 +36987,7 @@
         <v>5</v>
       </c>
       <c r="F189" t="str">
-        <f>CONCATENATE(D189,E189)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37009,7 +37008,7 @@
         <v>5</v>
       </c>
       <c r="F190" t="str">
-        <f>CONCATENATE(D190,E190)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37030,7 +37029,7 @@
         <v>5</v>
       </c>
       <c r="F191" t="str">
-        <f>CONCATENATE(D191,E191)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37051,7 +37050,7 @@
         <v>5</v>
       </c>
       <c r="F192" t="str">
-        <f>CONCATENATE(D192,E192)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37072,7 +37071,7 @@
         <v>5</v>
       </c>
       <c r="F193" t="str">
-        <f>CONCATENATE(D193,E193)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37093,7 +37092,7 @@
         <v>5</v>
       </c>
       <c r="F194" t="str">
-        <f>CONCATENATE(D194,E194)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37114,7 +37113,7 @@
         <v>5</v>
       </c>
       <c r="F195" t="str">
-        <f>CONCATENATE(D195,E195)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37135,7 +37134,7 @@
         <v>5</v>
       </c>
       <c r="F196" t="str">
-        <f>CONCATENATE(D196,E196)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37156,7 +37155,7 @@
         <v>5</v>
       </c>
       <c r="F197" t="str">
-        <f>CONCATENATE(D197,E197)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37177,7 +37176,7 @@
         <v>5</v>
       </c>
       <c r="F198" t="str">
-        <f>CONCATENATE(D198,E198)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37198,7 +37197,7 @@
         <v>5</v>
       </c>
       <c r="F199" t="str">
-        <f>CONCATENATE(D199,E199)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37219,7 +37218,7 @@
         <v>5</v>
       </c>
       <c r="F200" t="str">
-        <f>CONCATENATE(D200,E200)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37240,7 +37239,7 @@
         <v>5</v>
       </c>
       <c r="F201" t="str">
-        <f>CONCATENATE(D201,E201)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37261,7 +37260,7 @@
         <v>5</v>
       </c>
       <c r="F202" t="str">
-        <f>CONCATENATE(D202,E202)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37282,7 +37281,7 @@
         <v>5</v>
       </c>
       <c r="F203" t="str">
-        <f>CONCATENATE(D203,E203)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37303,7 +37302,7 @@
         <v>5</v>
       </c>
       <c r="F204" t="str">
-        <f>CONCATENATE(D204,E204)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37324,7 +37323,7 @@
         <v>5</v>
       </c>
       <c r="F205" t="str">
-        <f>CONCATENATE(D205,E205)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37345,7 +37344,7 @@
         <v>5</v>
       </c>
       <c r="F206" t="str">
-        <f>CONCATENATE(D206,E206)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37366,7 +37365,7 @@
         <v>5</v>
       </c>
       <c r="F207" t="str">
-        <f>CONCATENATE(D207,E207)</f>
+        <f t="shared" si="5"/>
         <v>C5</v>
       </c>
     </row>
@@ -37396,7 +37395,7 @@
         <v>1</v>
       </c>
       <c r="F209" t="str">
-        <f>CONCATENATE(D209,E209)</f>
+        <f t="shared" ref="F209:F230" si="6">CONCATENATE(D209,E209)</f>
         <v>S1</v>
       </c>
     </row>
@@ -37417,7 +37416,7 @@
         <v>1</v>
       </c>
       <c r="F210" t="str">
-        <f>CONCATENATE(D210,E210)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37438,7 +37437,7 @@
         <v>1</v>
       </c>
       <c r="F211" t="str">
-        <f>CONCATENATE(D211,E211)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37459,7 +37458,7 @@
         <v>1</v>
       </c>
       <c r="F212" t="str">
-        <f>CONCATENATE(D212,E212)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37480,7 +37479,7 @@
         <v>1</v>
       </c>
       <c r="F213" t="str">
-        <f>CONCATENATE(D213,E213)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37501,7 +37500,7 @@
         <v>1</v>
       </c>
       <c r="F214" t="str">
-        <f>CONCATENATE(D214,E214)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37522,7 +37521,7 @@
         <v>1</v>
       </c>
       <c r="F215" t="str">
-        <f>CONCATENATE(D215,E215)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37543,7 +37542,7 @@
         <v>1</v>
       </c>
       <c r="F216" t="str">
-        <f>CONCATENATE(D216,E216)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37564,7 +37563,7 @@
         <v>1</v>
       </c>
       <c r="F217" t="str">
-        <f>CONCATENATE(D217,E217)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37585,7 +37584,7 @@
         <v>1</v>
       </c>
       <c r="F218" t="str">
-        <f>CONCATENATE(D218,E218)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37606,7 +37605,7 @@
         <v>1</v>
       </c>
       <c r="F219" t="str">
-        <f>CONCATENATE(D219,E219)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37627,7 +37626,7 @@
         <v>1</v>
       </c>
       <c r="F220" t="str">
-        <f>CONCATENATE(D220,E220)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37648,7 +37647,7 @@
         <v>1</v>
       </c>
       <c r="F221" t="str">
-        <f>CONCATENATE(D221,E221)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37669,7 +37668,7 @@
         <v>1</v>
       </c>
       <c r="F222" t="str">
-        <f>CONCATENATE(D222,E222)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37690,7 +37689,7 @@
         <v>1</v>
       </c>
       <c r="F223" t="str">
-        <f>CONCATENATE(D223,E223)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37711,7 +37710,7 @@
         <v>1</v>
       </c>
       <c r="F224" t="str">
-        <f>CONCATENATE(D224,E224)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37732,7 +37731,7 @@
         <v>1</v>
       </c>
       <c r="F225" t="str">
-        <f>CONCATENATE(D225,E225)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37753,7 +37752,7 @@
         <v>1</v>
       </c>
       <c r="F226" t="str">
-        <f>CONCATENATE(D226,E226)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37774,7 +37773,7 @@
         <v>1</v>
       </c>
       <c r="F227" t="str">
-        <f>CONCATENATE(D227,E227)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37795,7 +37794,7 @@
         <v>1</v>
       </c>
       <c r="F228" t="str">
-        <f>CONCATENATE(D228,E228)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37816,7 +37815,7 @@
         <v>1</v>
       </c>
       <c r="F229" t="str">
-        <f>CONCATENATE(D229,E229)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37837,7 +37836,7 @@
         <v>1</v>
       </c>
       <c r="F230" t="str">
-        <f>CONCATENATE(D230,E230)</f>
+        <f t="shared" si="6"/>
         <v>S1</v>
       </c>
     </row>
@@ -37867,7 +37866,7 @@
         <v>2</v>
       </c>
       <c r="F232" t="str">
-        <f>CONCATENATE(D232,E232)</f>
+        <f t="shared" ref="F232:F252" si="7">CONCATENATE(D232,E232)</f>
         <v>S2</v>
       </c>
     </row>
@@ -37888,7 +37887,7 @@
         <v>2</v>
       </c>
       <c r="F233" t="str">
-        <f>CONCATENATE(D233,E233)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -37909,7 +37908,7 @@
         <v>2</v>
       </c>
       <c r="F234" t="str">
-        <f>CONCATENATE(D234,E234)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -37930,7 +37929,7 @@
         <v>2</v>
       </c>
       <c r="F235" t="str">
-        <f>CONCATENATE(D235,E235)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -37951,7 +37950,7 @@
         <v>2</v>
       </c>
       <c r="F236" t="str">
-        <f>CONCATENATE(D236,E236)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -37972,7 +37971,7 @@
         <v>2</v>
       </c>
       <c r="F237" t="str">
-        <f>CONCATENATE(D237,E237)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -37993,7 +37992,7 @@
         <v>2</v>
       </c>
       <c r="F238" t="str">
-        <f>CONCATENATE(D238,E238)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -38014,7 +38013,7 @@
         <v>2</v>
       </c>
       <c r="F239" t="str">
-        <f>CONCATENATE(D239,E239)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -38035,7 +38034,7 @@
         <v>2</v>
       </c>
       <c r="F240" t="str">
-        <f>CONCATENATE(D240,E240)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -38056,7 +38055,7 @@
         <v>2</v>
       </c>
       <c r="F241" t="str">
-        <f>CONCATENATE(D241,E241)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -38077,7 +38076,7 @@
         <v>2</v>
       </c>
       <c r="F242" t="str">
-        <f>CONCATENATE(D242,E242)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -38098,7 +38097,7 @@
         <v>2</v>
       </c>
       <c r="F243" t="str">
-        <f>CONCATENATE(D243,E243)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -38119,7 +38118,7 @@
         <v>2</v>
       </c>
       <c r="F244" t="str">
-        <f>CONCATENATE(D244,E244)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -38140,7 +38139,7 @@
         <v>2</v>
       </c>
       <c r="F245" t="str">
-        <f>CONCATENATE(D245,E245)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -38161,7 +38160,7 @@
         <v>2</v>
       </c>
       <c r="F246" t="str">
-        <f>CONCATENATE(D246,E246)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -38182,7 +38181,7 @@
         <v>2</v>
       </c>
       <c r="F247" t="str">
-        <f>CONCATENATE(D247,E247)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -38203,7 +38202,7 @@
         <v>2</v>
       </c>
       <c r="F248" t="str">
-        <f>CONCATENATE(D248,E248)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -38224,7 +38223,7 @@
         <v>2</v>
       </c>
       <c r="F249" t="str">
-        <f>CONCATENATE(D249,E249)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -38245,7 +38244,7 @@
         <v>2</v>
       </c>
       <c r="F250" t="str">
-        <f>CONCATENATE(D250,E250)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -38266,7 +38265,7 @@
         <v>2</v>
       </c>
       <c r="F251" t="str">
-        <f>CONCATENATE(D251,E251)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -38287,7 +38286,7 @@
         <v>2</v>
       </c>
       <c r="F252" t="str">
-        <f>CONCATENATE(D252,E252)</f>
+        <f t="shared" si="7"/>
         <v>S2</v>
       </c>
     </row>
@@ -38317,7 +38316,7 @@
         <v>3</v>
       </c>
       <c r="F254" t="str">
-        <f>CONCATENATE(D254,E254)</f>
+        <f t="shared" ref="F254:F274" si="8">CONCATENATE(D254,E254)</f>
         <v>S3</v>
       </c>
     </row>
@@ -38338,7 +38337,7 @@
         <v>3</v>
       </c>
       <c r="F255" t="str">
-        <f>CONCATENATE(D255,E255)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38359,7 +38358,7 @@
         <v>3</v>
       </c>
       <c r="F256" t="str">
-        <f>CONCATENATE(D256,E256)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38380,7 +38379,7 @@
         <v>3</v>
       </c>
       <c r="F257" t="str">
-        <f>CONCATENATE(D257,E257)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38401,7 +38400,7 @@
         <v>3</v>
       </c>
       <c r="F258" t="str">
-        <f>CONCATENATE(D258,E258)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38422,7 +38421,7 @@
         <v>3</v>
       </c>
       <c r="F259" t="str">
-        <f>CONCATENATE(D259,E259)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38443,7 +38442,7 @@
         <v>3</v>
       </c>
       <c r="F260" t="str">
-        <f>CONCATENATE(D260,E260)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38464,7 +38463,7 @@
         <v>3</v>
       </c>
       <c r="F261" t="str">
-        <f>CONCATENATE(D261,E261)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38485,7 +38484,7 @@
         <v>3</v>
       </c>
       <c r="F262" t="str">
-        <f>CONCATENATE(D262,E262)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38506,7 +38505,7 @@
         <v>3</v>
       </c>
       <c r="F263" t="str">
-        <f>CONCATENATE(D263,E263)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38527,7 +38526,7 @@
         <v>3</v>
       </c>
       <c r="F264" t="str">
-        <f>CONCATENATE(D264,E264)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38548,7 +38547,7 @@
         <v>3</v>
       </c>
       <c r="F265" t="str">
-        <f>CONCATENATE(D265,E265)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38569,7 +38568,7 @@
         <v>3</v>
       </c>
       <c r="F266" t="str">
-        <f>CONCATENATE(D266,E266)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38590,7 +38589,7 @@
         <v>3</v>
       </c>
       <c r="F267" t="str">
-        <f>CONCATENATE(D267,E267)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38611,7 +38610,7 @@
         <v>3</v>
       </c>
       <c r="F268" t="str">
-        <f>CONCATENATE(D268,E268)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38632,7 +38631,7 @@
         <v>3</v>
       </c>
       <c r="F269" t="str">
-        <f>CONCATENATE(D269,E269)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38653,7 +38652,7 @@
         <v>3</v>
       </c>
       <c r="F270" t="str">
-        <f>CONCATENATE(D270,E270)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38674,7 +38673,7 @@
         <v>3</v>
       </c>
       <c r="F271" t="str">
-        <f>CONCATENATE(D271,E271)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38695,7 +38694,7 @@
         <v>3</v>
       </c>
       <c r="F272" t="str">
-        <f>CONCATENATE(D272,E272)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38716,7 +38715,7 @@
         <v>3</v>
       </c>
       <c r="F273" t="str">
-        <f>CONCATENATE(D273,E273)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38737,7 +38736,7 @@
         <v>3</v>
       </c>
       <c r="F274" t="str">
-        <f>CONCATENATE(D274,E274)</f>
+        <f t="shared" si="8"/>
         <v>S3</v>
       </c>
     </row>
@@ -38767,7 +38766,7 @@
         <v>4</v>
       </c>
       <c r="F276" t="str">
-        <f>CONCATENATE(D276,E276)</f>
+        <f t="shared" ref="F276:F295" si="9">CONCATENATE(D276,E276)</f>
         <v>S4</v>
       </c>
     </row>
@@ -38788,7 +38787,7 @@
         <v>4</v>
       </c>
       <c r="F277" t="str">
-        <f>CONCATENATE(D277,E277)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -38809,7 +38808,7 @@
         <v>4</v>
       </c>
       <c r="F278" t="str">
-        <f>CONCATENATE(D278,E278)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -38830,7 +38829,7 @@
         <v>4</v>
       </c>
       <c r="F279" t="str">
-        <f>CONCATENATE(D279,E279)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -38851,7 +38850,7 @@
         <v>4</v>
       </c>
       <c r="F280" t="str">
-        <f>CONCATENATE(D280,E280)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -38872,7 +38871,7 @@
         <v>4</v>
       </c>
       <c r="F281" t="str">
-        <f>CONCATENATE(D281,E281)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -38893,7 +38892,7 @@
         <v>4</v>
       </c>
       <c r="F282" t="str">
-        <f>CONCATENATE(D282,E282)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -38914,7 +38913,7 @@
         <v>4</v>
       </c>
       <c r="F283" t="str">
-        <f>CONCATENATE(D283,E283)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -38935,7 +38934,7 @@
         <v>4</v>
       </c>
       <c r="F284" t="str">
-        <f>CONCATENATE(D284,E284)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -38956,7 +38955,7 @@
         <v>4</v>
       </c>
       <c r="F285" t="str">
-        <f>CONCATENATE(D285,E285)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -38977,7 +38976,7 @@
         <v>4</v>
       </c>
       <c r="F286" t="str">
-        <f>CONCATENATE(D286,E286)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -38998,7 +38997,7 @@
         <v>4</v>
       </c>
       <c r="F287" t="str">
-        <f>CONCATENATE(D287,E287)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -39019,7 +39018,7 @@
         <v>4</v>
       </c>
       <c r="F288" t="str">
-        <f>CONCATENATE(D288,E288)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -39040,7 +39039,7 @@
         <v>4</v>
       </c>
       <c r="F289" t="str">
-        <f>CONCATENATE(D289,E289)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -39061,7 +39060,7 @@
         <v>4</v>
       </c>
       <c r="F290" t="str">
-        <f>CONCATENATE(D290,E290)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -39082,7 +39081,7 @@
         <v>4</v>
       </c>
       <c r="F291" t="str">
-        <f>CONCATENATE(D291,E291)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -39103,7 +39102,7 @@
         <v>4</v>
       </c>
       <c r="F292" t="str">
-        <f>CONCATENATE(D292,E292)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -39124,7 +39123,7 @@
         <v>4</v>
       </c>
       <c r="F293" t="str">
-        <f>CONCATENATE(D293,E293)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -39145,7 +39144,7 @@
         <v>4</v>
       </c>
       <c r="F294" t="str">
-        <f>CONCATENATE(D294,E294)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -39166,7 +39165,7 @@
         <v>4</v>
       </c>
       <c r="F295" t="str">
-        <f>CONCATENATE(D295,E295)</f>
+        <f t="shared" si="9"/>
         <v>S4</v>
       </c>
     </row>
@@ -39196,7 +39195,7 @@
         <v>5</v>
       </c>
       <c r="F297" t="str">
-        <f>CONCATENATE(D297,E297)</f>
+        <f t="shared" ref="F297:F310" si="10">CONCATENATE(D297,E297)</f>
         <v>S5</v>
       </c>
     </row>
@@ -39217,7 +39216,7 @@
         <v>5</v>
       </c>
       <c r="F298" t="str">
-        <f>CONCATENATE(D298,E298)</f>
+        <f t="shared" si="10"/>
         <v>S5</v>
       </c>
     </row>
@@ -39238,7 +39237,7 @@
         <v>5</v>
       </c>
       <c r="F299" t="str">
-        <f>CONCATENATE(D299,E299)</f>
+        <f t="shared" si="10"/>
         <v>S5</v>
       </c>
     </row>
@@ -39259,7 +39258,7 @@
         <v>5</v>
       </c>
       <c r="F300" t="str">
-        <f>CONCATENATE(D300,E300)</f>
+        <f t="shared" si="10"/>
         <v>S5</v>
       </c>
     </row>
@@ -39280,7 +39279,7 @@
         <v>5</v>
       </c>
       <c r="F301" t="str">
-        <f>CONCATENATE(D301,E301)</f>
+        <f t="shared" si="10"/>
         <v>S5</v>
       </c>
     </row>
@@ -39301,7 +39300,7 @@
         <v>5</v>
       </c>
       <c r="F302" t="str">
-        <f>CONCATENATE(D302,E302)</f>
+        <f t="shared" si="10"/>
         <v>S5</v>
       </c>
     </row>
@@ -39322,7 +39321,7 @@
         <v>5</v>
       </c>
       <c r="F303" t="str">
-        <f>CONCATENATE(D303,E303)</f>
+        <f t="shared" si="10"/>
         <v>S5</v>
       </c>
     </row>
@@ -39343,7 +39342,7 @@
         <v>5</v>
       </c>
       <c r="F304" t="str">
-        <f>CONCATENATE(D304,E304)</f>
+        <f t="shared" si="10"/>
         <v>S5</v>
       </c>
     </row>
@@ -39364,7 +39363,7 @@
         <v>5</v>
       </c>
       <c r="F305" t="str">
-        <f>CONCATENATE(D305,E305)</f>
+        <f t="shared" si="10"/>
         <v>S5</v>
       </c>
     </row>
@@ -39385,7 +39384,7 @@
         <v>5</v>
       </c>
       <c r="F306" t="str">
-        <f>CONCATENATE(D306,E306)</f>
+        <f t="shared" si="10"/>
         <v>S5</v>
       </c>
     </row>
@@ -39406,7 +39405,7 @@
         <v>5</v>
       </c>
       <c r="F307" t="str">
-        <f>CONCATENATE(D307,E307)</f>
+        <f t="shared" si="10"/>
         <v>S5</v>
       </c>
     </row>
@@ -39427,7 +39426,7 @@
         <v>5</v>
       </c>
       <c r="F308" t="str">
-        <f>CONCATENATE(D308,E308)</f>
+        <f t="shared" si="10"/>
         <v>S5</v>
       </c>
     </row>
@@ -39448,7 +39447,7 @@
         <v>5</v>
       </c>
       <c r="F309" t="str">
-        <f>CONCATENATE(D309,E309)</f>
+        <f t="shared" si="10"/>
         <v>S5</v>
       </c>
     </row>
@@ -39469,7 +39468,7 @@
         <v>5</v>
       </c>
       <c r="F310" t="str">
-        <f>CONCATENATE(D310,E310)</f>
+        <f t="shared" si="10"/>
         <v>S5</v>
       </c>
     </row>
@@ -39505,7 +39504,7 @@
         <v>1</v>
       </c>
       <c r="F312" t="str">
-        <f t="shared" ref="F312:F335" si="0">CONCATENATE(D312,E312)</f>
+        <f t="shared" ref="F312:F335" si="11">CONCATENATE(D312,E312)</f>
         <v>C1</v>
       </c>
       <c r="N312" t="s">
@@ -39562,7 +39561,7 @@
         <v>0</v>
       </c>
       <c r="F315" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
       <c r="N315" t="s">
@@ -39589,7 +39588,7 @@
         <v>0</v>
       </c>
       <c r="F316" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
       <c r="N316" t="s">
@@ -39616,7 +39615,7 @@
         <v>0</v>
       </c>
       <c r="F317" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
       <c r="N317" t="s">
@@ -39643,7 +39642,7 @@
         <v>0</v>
       </c>
       <c r="F318" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
       <c r="N318" t="s">
@@ -39670,7 +39669,7 @@
         <v>0</v>
       </c>
       <c r="F319" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
       <c r="N319" t="s">
@@ -39697,7 +39696,7 @@
         <v>0</v>
       </c>
       <c r="F320" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
       <c r="N320" t="s">
@@ -39724,7 +39723,7 @@
         <v>0</v>
       </c>
       <c r="F321" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
     </row>
@@ -39745,7 +39744,7 @@
         <v>0</v>
       </c>
       <c r="F322" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
     </row>
@@ -39766,7 +39765,7 @@
         <v>0</v>
       </c>
       <c r="F323" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
     </row>
@@ -39787,7 +39786,7 @@
         <v>0</v>
       </c>
       <c r="F324" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
     </row>
@@ -39808,7 +39807,7 @@
         <v>0</v>
       </c>
       <c r="F325" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
     </row>
@@ -39829,7 +39828,7 @@
         <v>0</v>
       </c>
       <c r="F326" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
     </row>
@@ -39850,7 +39849,7 @@
         <v>0</v>
       </c>
       <c r="F327" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
     </row>
@@ -39871,7 +39870,7 @@
         <v>0</v>
       </c>
       <c r="F328" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
     </row>
@@ -39892,7 +39891,7 @@
         <v>0</v>
       </c>
       <c r="F329" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
     </row>
@@ -39913,7 +39912,7 @@
         <v>0</v>
       </c>
       <c r="F330" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
     </row>
@@ -39934,7 +39933,7 @@
         <v>0</v>
       </c>
       <c r="F331" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
     </row>
@@ -39955,7 +39954,7 @@
         <v>0</v>
       </c>
       <c r="F332" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
     </row>
@@ -39976,7 +39975,7 @@
         <v>0</v>
       </c>
       <c r="F333" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
     </row>
@@ -39997,7 +39996,7 @@
         <v>0</v>
       </c>
       <c r="F334" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
     </row>
@@ -40018,7 +40017,7 @@
         <v>0</v>
       </c>
       <c r="F335" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="11"/>
         <v>00</v>
       </c>
     </row>
@@ -40039,7 +40038,7 @@
         <v>0</v>
       </c>
       <c r="F336" t="str">
-        <f t="shared" ref="F336:F399" si="1">CONCATENATE(D336,E336)</f>
+        <f t="shared" ref="F336:F399" si="12">CONCATENATE(D336,E336)</f>
         <v>00</v>
       </c>
     </row>
@@ -40060,7 +40059,7 @@
         <v>0</v>
       </c>
       <c r="F337" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40081,7 +40080,7 @@
         <v>0</v>
       </c>
       <c r="F338" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40102,7 +40101,7 @@
         <v>0</v>
       </c>
       <c r="F339" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40123,7 +40122,7 @@
         <v>0</v>
       </c>
       <c r="F340" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40144,7 +40143,7 @@
         <v>0</v>
       </c>
       <c r="F341" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40165,7 +40164,7 @@
         <v>0</v>
       </c>
       <c r="F342" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40186,7 +40185,7 @@
         <v>0</v>
       </c>
       <c r="F343" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40207,7 +40206,7 @@
         <v>0</v>
       </c>
       <c r="F344" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40228,7 +40227,7 @@
         <v>0</v>
       </c>
       <c r="F345" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40249,7 +40248,7 @@
         <v>0</v>
       </c>
       <c r="F346" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40270,7 +40269,7 @@
         <v>0</v>
       </c>
       <c r="F347" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40291,7 +40290,7 @@
         <v>0</v>
       </c>
       <c r="F348" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40312,7 +40311,7 @@
         <v>0</v>
       </c>
       <c r="F349" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40333,7 +40332,7 @@
         <v>0</v>
       </c>
       <c r="F350" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40354,7 +40353,7 @@
         <v>0</v>
       </c>
       <c r="F351" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40375,7 +40374,7 @@
         <v>0</v>
       </c>
       <c r="F352" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40396,7 +40395,7 @@
         <v>0</v>
       </c>
       <c r="F353" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40417,7 +40416,7 @@
         <v>0</v>
       </c>
       <c r="F354" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40438,7 +40437,7 @@
         <v>0</v>
       </c>
       <c r="F355" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40459,7 +40458,7 @@
         <v>0</v>
       </c>
       <c r="F356" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40480,7 +40479,7 @@
         <v>0</v>
       </c>
       <c r="F357" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40501,7 +40500,7 @@
         <v>0</v>
       </c>
       <c r="F358" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40522,7 +40521,7 @@
         <v>0</v>
       </c>
       <c r="F359" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40543,7 +40542,7 @@
         <v>0</v>
       </c>
       <c r="F360" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40564,7 +40563,7 @@
         <v>0</v>
       </c>
       <c r="F361" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40585,7 +40584,7 @@
         <v>0</v>
       </c>
       <c r="F362" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40606,7 +40605,7 @@
         <v>0</v>
       </c>
       <c r="F363" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40627,7 +40626,7 @@
         <v>0</v>
       </c>
       <c r="F364" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40648,7 +40647,7 @@
         <v>0</v>
       </c>
       <c r="F365" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40669,7 +40668,7 @@
         <v>0</v>
       </c>
       <c r="F366" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40690,7 +40689,7 @@
         <v>0</v>
       </c>
       <c r="F367" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40711,7 +40710,7 @@
         <v>0</v>
       </c>
       <c r="F368" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40732,7 +40731,7 @@
         <v>0</v>
       </c>
       <c r="F369" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40753,7 +40752,7 @@
         <v>0</v>
       </c>
       <c r="F370" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40774,7 +40773,7 @@
         <v>0</v>
       </c>
       <c r="F371" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40795,7 +40794,7 @@
         <v>0</v>
       </c>
       <c r="F372" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40816,7 +40815,7 @@
         <v>0</v>
       </c>
       <c r="F373" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40837,7 +40836,7 @@
         <v>0</v>
       </c>
       <c r="F374" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40858,7 +40857,7 @@
         <v>0</v>
       </c>
       <c r="F375" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40879,7 +40878,7 @@
         <v>0</v>
       </c>
       <c r="F376" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40900,7 +40899,7 @@
         <v>0</v>
       </c>
       <c r="F377" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40921,7 +40920,7 @@
         <v>0</v>
       </c>
       <c r="F378" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40942,7 +40941,7 @@
         <v>0</v>
       </c>
       <c r="F379" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40963,7 +40962,7 @@
         <v>0</v>
       </c>
       <c r="F380" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -40984,7 +40983,7 @@
         <v>0</v>
       </c>
       <c r="F381" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41005,7 +41004,7 @@
         <v>0</v>
       </c>
       <c r="F382" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41026,7 +41025,7 @@
         <v>0</v>
       </c>
       <c r="F383" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41047,7 +41046,7 @@
         <v>0</v>
       </c>
       <c r="F384" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41068,7 +41067,7 @@
         <v>0</v>
       </c>
       <c r="F385" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41089,7 +41088,7 @@
         <v>0</v>
       </c>
       <c r="F386" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41110,7 +41109,7 @@
         <v>0</v>
       </c>
       <c r="F387" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41131,7 +41130,7 @@
         <v>0</v>
       </c>
       <c r="F388" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41152,7 +41151,7 @@
         <v>0</v>
       </c>
       <c r="F389" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41173,7 +41172,7 @@
         <v>0</v>
       </c>
       <c r="F390" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41194,7 +41193,7 @@
         <v>0</v>
       </c>
       <c r="F391" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41215,7 +41214,7 @@
         <v>0</v>
       </c>
       <c r="F392" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41236,7 +41235,7 @@
         <v>0</v>
       </c>
       <c r="F393" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41257,7 +41256,7 @@
         <v>0</v>
       </c>
       <c r="F394" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41278,7 +41277,7 @@
         <v>0</v>
       </c>
       <c r="F395" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41299,7 +41298,7 @@
         <v>0</v>
       </c>
       <c r="F396" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41320,7 +41319,7 @@
         <v>0</v>
       </c>
       <c r="F397" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41341,7 +41340,7 @@
         <v>0</v>
       </c>
       <c r="F398" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41362,7 +41361,7 @@
         <v>0</v>
       </c>
       <c r="F399" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="12"/>
         <v>00</v>
       </c>
     </row>
@@ -41383,7 +41382,7 @@
         <v>0</v>
       </c>
       <c r="F400" t="str">
-        <f t="shared" ref="F400:F463" si="2">CONCATENATE(D400,E400)</f>
+        <f t="shared" ref="F400:F463" si="13">CONCATENATE(D400,E400)</f>
         <v>00</v>
       </c>
     </row>
@@ -41404,7 +41403,7 @@
         <v>0</v>
       </c>
       <c r="F401" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41425,7 +41424,7 @@
         <v>0</v>
       </c>
       <c r="F402" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41446,7 +41445,7 @@
         <v>0</v>
       </c>
       <c r="F403" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41467,7 +41466,7 @@
         <v>0</v>
       </c>
       <c r="F404" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41488,7 +41487,7 @@
         <v>0</v>
       </c>
       <c r="F405" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41509,7 +41508,7 @@
         <v>0</v>
       </c>
       <c r="F406" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41530,7 +41529,7 @@
         <v>0</v>
       </c>
       <c r="F407" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41551,7 +41550,7 @@
         <v>0</v>
       </c>
       <c r="F408" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41572,7 +41571,7 @@
         <v>0</v>
       </c>
       <c r="F409" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41593,7 +41592,7 @@
         <v>0</v>
       </c>
       <c r="F410" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41614,7 +41613,7 @@
         <v>0</v>
       </c>
       <c r="F411" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41635,7 +41634,7 @@
         <v>0</v>
       </c>
       <c r="F412" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41656,7 +41655,7 @@
         <v>0</v>
       </c>
       <c r="F413" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41677,7 +41676,7 @@
         <v>0</v>
       </c>
       <c r="F414" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41698,7 +41697,7 @@
         <v>0</v>
       </c>
       <c r="F415" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41719,7 +41718,7 @@
         <v>0</v>
       </c>
       <c r="F416" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41740,7 +41739,7 @@
         <v>0</v>
       </c>
       <c r="F417" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41761,7 +41760,7 @@
         <v>0</v>
       </c>
       <c r="F418" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41782,7 +41781,7 @@
         <v>0</v>
       </c>
       <c r="F419" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41803,7 +41802,7 @@
         <v>0</v>
       </c>
       <c r="F420" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41824,7 +41823,7 @@
         <v>0</v>
       </c>
       <c r="F421" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41845,7 +41844,7 @@
         <v>0</v>
       </c>
       <c r="F422" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41866,7 +41865,7 @@
         <v>0</v>
       </c>
       <c r="F423" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41887,7 +41886,7 @@
         <v>0</v>
       </c>
       <c r="F424" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41908,7 +41907,7 @@
         <v>0</v>
       </c>
       <c r="F425" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41929,7 +41928,7 @@
         <v>0</v>
       </c>
       <c r="F426" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41950,7 +41949,7 @@
         <v>0</v>
       </c>
       <c r="F427" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41971,7 +41970,7 @@
         <v>0</v>
       </c>
       <c r="F428" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -41992,7 +41991,7 @@
         <v>0</v>
       </c>
       <c r="F429" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42013,7 +42012,7 @@
         <v>0</v>
       </c>
       <c r="F430" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42034,7 +42033,7 @@
         <v>0</v>
       </c>
       <c r="F431" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42055,7 +42054,7 @@
         <v>0</v>
       </c>
       <c r="F432" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42076,7 +42075,7 @@
         <v>0</v>
       </c>
       <c r="F433" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42097,7 +42096,7 @@
         <v>0</v>
       </c>
       <c r="F434" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42118,7 +42117,7 @@
         <v>0</v>
       </c>
       <c r="F435" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42139,7 +42138,7 @@
         <v>0</v>
       </c>
       <c r="F436" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42160,7 +42159,7 @@
         <v>0</v>
       </c>
       <c r="F437" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42181,7 +42180,7 @@
         <v>0</v>
       </c>
       <c r="F438" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42202,7 +42201,7 @@
         <v>0</v>
       </c>
       <c r="F439" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42223,7 +42222,7 @@
         <v>0</v>
       </c>
       <c r="F440" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42244,7 +42243,7 @@
         <v>0</v>
       </c>
       <c r="F441" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42265,7 +42264,7 @@
         <v>0</v>
       </c>
       <c r="F442" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42286,7 +42285,7 @@
         <v>0</v>
       </c>
       <c r="F443" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42307,7 +42306,7 @@
         <v>0</v>
       </c>
       <c r="F444" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42328,7 +42327,7 @@
         <v>0</v>
       </c>
       <c r="F445" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42349,7 +42348,7 @@
         <v>0</v>
       </c>
       <c r="F446" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42370,7 +42369,7 @@
         <v>0</v>
       </c>
       <c r="F447" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42391,7 +42390,7 @@
         <v>0</v>
       </c>
       <c r="F448" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42412,7 +42411,7 @@
         <v>0</v>
       </c>
       <c r="F449" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42433,7 +42432,7 @@
         <v>0</v>
       </c>
       <c r="F450" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42454,7 +42453,7 @@
         <v>0</v>
       </c>
       <c r="F451" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42475,7 +42474,7 @@
         <v>0</v>
       </c>
       <c r="F452" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42496,7 +42495,7 @@
         <v>0</v>
       </c>
       <c r="F453" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42517,7 +42516,7 @@
         <v>0</v>
       </c>
       <c r="F454" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42538,7 +42537,7 @@
         <v>0</v>
       </c>
       <c r="F455" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42559,7 +42558,7 @@
         <v>0</v>
       </c>
       <c r="F456" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42580,7 +42579,7 @@
         <v>0</v>
       </c>
       <c r="F457" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42601,7 +42600,7 @@
         <v>0</v>
       </c>
       <c r="F458" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42622,7 +42621,7 @@
         <v>0</v>
       </c>
       <c r="F459" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42643,7 +42642,7 @@
         <v>0</v>
       </c>
       <c r="F460" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42664,7 +42663,7 @@
         <v>0</v>
       </c>
       <c r="F461" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42685,7 +42684,7 @@
         <v>0</v>
       </c>
       <c r="F462" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42706,7 +42705,7 @@
         <v>0</v>
       </c>
       <c r="F463" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="13"/>
         <v>00</v>
       </c>
     </row>
@@ -42727,7 +42726,7 @@
         <v>0</v>
       </c>
       <c r="F464" t="str">
-        <f t="shared" ref="F464:F514" si="3">CONCATENATE(D464,E464)</f>
+        <f t="shared" ref="F464:F514" si="14">CONCATENATE(D464,E464)</f>
         <v>00</v>
       </c>
     </row>
@@ -42748,7 +42747,7 @@
         <v>0</v>
       </c>
       <c r="F465" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -42769,7 +42768,7 @@
         <v>0</v>
       </c>
       <c r="F466" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -42790,7 +42789,7 @@
         <v>0</v>
       </c>
       <c r="F467" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -42811,7 +42810,7 @@
         <v>0</v>
       </c>
       <c r="F468" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -42832,7 +42831,7 @@
         <v>0</v>
       </c>
       <c r="F469" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -42853,7 +42852,7 @@
         <v>0</v>
       </c>
       <c r="F470" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -42874,7 +42873,7 @@
         <v>0</v>
       </c>
       <c r="F471" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -42895,7 +42894,7 @@
         <v>0</v>
       </c>
       <c r="F472" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -42916,7 +42915,7 @@
         <v>0</v>
       </c>
       <c r="F473" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -42937,7 +42936,7 @@
         <v>0</v>
       </c>
       <c r="F474" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -42958,7 +42957,7 @@
         <v>0</v>
       </c>
       <c r="F475" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -42979,7 +42978,7 @@
         <v>0</v>
       </c>
       <c r="F476" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43000,7 +42999,7 @@
         <v>0</v>
       </c>
       <c r="F477" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43021,7 +43020,7 @@
         <v>0</v>
       </c>
       <c r="F478" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43042,7 +43041,7 @@
         <v>0</v>
       </c>
       <c r="F479" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43063,7 +43062,7 @@
         <v>0</v>
       </c>
       <c r="F480" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43084,7 +43083,7 @@
         <v>0</v>
       </c>
       <c r="F481" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43105,7 +43104,7 @@
         <v>0</v>
       </c>
       <c r="F482" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43126,7 +43125,7 @@
         <v>0</v>
       </c>
       <c r="F483" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43147,7 +43146,7 @@
         <v>0</v>
       </c>
       <c r="F484" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43168,7 +43167,7 @@
         <v>0</v>
       </c>
       <c r="F485" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43189,7 +43188,7 @@
         <v>0</v>
       </c>
       <c r="F486" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43210,7 +43209,7 @@
         <v>0</v>
       </c>
       <c r="F487" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43231,7 +43230,7 @@
         <v>0</v>
       </c>
       <c r="F488" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43252,7 +43251,7 @@
         <v>0</v>
       </c>
       <c r="F489" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43273,7 +43272,7 @@
         <v>0</v>
       </c>
       <c r="F490" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43294,7 +43293,7 @@
         <v>0</v>
       </c>
       <c r="F491" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43315,7 +43314,7 @@
         <v>0</v>
       </c>
       <c r="F492" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43336,7 +43335,7 @@
         <v>0</v>
       </c>
       <c r="F493" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43357,7 +43356,7 @@
         <v>0</v>
       </c>
       <c r="F494" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43378,7 +43377,7 @@
         <v>0</v>
       </c>
       <c r="F495" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43399,7 +43398,7 @@
         <v>0</v>
       </c>
       <c r="F496" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43420,7 +43419,7 @@
         <v>0</v>
       </c>
       <c r="F497" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43441,7 +43440,7 @@
         <v>0</v>
       </c>
       <c r="F498" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43462,7 +43461,7 @@
         <v>0</v>
       </c>
       <c r="F499" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43483,7 +43482,7 @@
         <v>0</v>
       </c>
       <c r="F500" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43504,7 +43503,7 @@
         <v>0</v>
       </c>
       <c r="F501" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43525,7 +43524,7 @@
         <v>0</v>
       </c>
       <c r="F502" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43546,7 +43545,7 @@
         <v>0</v>
       </c>
       <c r="F503" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43567,7 +43566,7 @@
         <v>0</v>
       </c>
       <c r="F504" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43588,7 +43587,7 @@
         <v>0</v>
       </c>
       <c r="F505" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43609,7 +43608,7 @@
         <v>0</v>
       </c>
       <c r="F506" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43630,7 +43629,7 @@
         <v>0</v>
       </c>
       <c r="F507" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43651,7 +43650,7 @@
         <v>0</v>
       </c>
       <c r="F508" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43672,7 +43671,7 @@
         <v>0</v>
       </c>
       <c r="F509" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43693,7 +43692,7 @@
         <v>0</v>
       </c>
       <c r="F510" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43714,7 +43713,7 @@
         <v>0</v>
       </c>
       <c r="F511" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43735,7 +43734,7 @@
         <v>0</v>
       </c>
       <c r="F512" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43756,7 +43755,7 @@
         <v>0</v>
       </c>
       <c r="F513" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
@@ -43777,7 +43776,7 @@
         <v>0</v>
       </c>
       <c r="F514" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="14"/>
         <v>00</v>
       </c>
     </row>
